--- a/data/powerball_sales.xlsx
+++ b/data/powerball_sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amyclaman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amyclaman/ETL-Process/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59270136-E984-EE4E-A928-DB4AB7131612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BD06EA-0118-2E41-ACA8-7D5418D731CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15920" xr2:uid="{C8E52C21-4129-BA43-B994-ADBDD45B7207}"/>
+    <workbookView xWindow="780" yWindow="840" windowWidth="27640" windowHeight="15920" xr2:uid="{C8E52C21-4129-BA43-B994-ADBDD45B7207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Jackpot (Millions)</t>
-  </si>
-  <si>
-    <t>17,234,496 </t>
   </si>
 </sst>
 </file>
@@ -82,10 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -405,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2850472-F86E-1D4F-86BF-29A9B6022914}">
   <dimension ref="A1:C765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346"/>
+    <sheetView tabSelected="1" topLeftCell="A732" workbookViewId="0">
+      <selection activeCell="B619" sqref="B619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -426,10 +422,10 @@
       <c r="A2" s="1">
         <v>43582</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>17204152</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>166</v>
       </c>
     </row>
@@ -437,10 +433,10 @@
       <c r="A3" s="1">
         <v>43579</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15122600</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>150</v>
       </c>
     </row>
@@ -448,10 +444,10 @@
       <c r="A4" s="1">
         <v>43575</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>16422502</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>136</v>
       </c>
     </row>
@@ -459,10 +455,10 @@
       <c r="A5" s="1">
         <v>43572</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>14472208</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>118</v>
       </c>
     </row>
@@ -470,10 +466,10 @@
       <c r="A6" s="1">
         <v>43568</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>15663006</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>101</v>
       </c>
     </row>
@@ -481,10 +477,10 @@
       <c r="A7" s="1">
         <v>43565</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>13260953</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>84</v>
       </c>
     </row>
@@ -492,10 +488,10 @@
       <c r="A8" s="1">
         <v>43561</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>14525590</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>68</v>
       </c>
     </row>
@@ -503,10 +499,10 @@
       <c r="A9" s="1">
         <v>43558</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>13218913</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>54</v>
       </c>
     </row>
@@ -514,10 +510,10 @@
       <c r="A10" s="1">
         <v>43554</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>14970003</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>40</v>
       </c>
     </row>
@@ -525,10 +521,10 @@
       <c r="A11" s="1">
         <v>43551</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>134060942</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>750</v>
       </c>
     </row>
@@ -536,10 +532,10 @@
       <c r="A12" s="1">
         <v>43547</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>90298137</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>625</v>
       </c>
     </row>
@@ -547,10 +543,10 @@
       <c r="A13" s="1">
         <v>43544</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>71029841</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>550</v>
       </c>
     </row>
@@ -558,10 +554,10 @@
       <c r="A14" s="1">
         <v>43540</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>46498176</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>495</v>
       </c>
     </row>
@@ -569,10 +565,10 @@
       <c r="A15" s="1">
         <v>43537</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>37293378</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>448</v>
       </c>
     </row>
@@ -580,10 +576,10 @@
       <c r="A16" s="1">
         <v>43533</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>34396266</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>414</v>
       </c>
     </row>
@@ -591,10 +587,10 @@
       <c r="A17" s="1">
         <v>43530</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>26004175</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>381</v>
       </c>
     </row>
@@ -602,10 +598,10 @@
       <c r="A18" s="1">
         <v>43526</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>26259031</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>348</v>
       </c>
     </row>
@@ -613,10 +609,10 @@
       <c r="A19" s="1">
         <v>43523</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>22296012</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>322</v>
       </c>
     </row>
@@ -624,10 +620,10 @@
       <c r="A20" s="1">
         <v>43519</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>22883302</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>304</v>
       </c>
     </row>
@@ -635,10 +631,10 @@
       <c r="A21" s="1">
         <v>43516</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>18319677</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>282</v>
       </c>
     </row>
@@ -646,10 +642,10 @@
       <c r="A22" s="1">
         <v>43512</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>19922601</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>260</v>
       </c>
     </row>
@@ -657,10 +653,10 @@
       <c r="A23" s="1">
         <v>43509</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>17520517</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>242</v>
       </c>
     </row>
@@ -668,10 +664,10 @@
       <c r="A24" s="1">
         <v>43505</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>18710129</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>224</v>
       </c>
     </row>
@@ -679,10 +675,10 @@
       <c r="A25" s="1">
         <v>43502</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>16846736</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>204</v>
       </c>
     </row>
@@ -690,10 +686,10 @@
       <c r="A26" s="1">
         <v>43498</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>17408508</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>191</v>
       </c>
     </row>
@@ -701,10 +697,10 @@
       <c r="A27" s="1">
         <v>43495</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>14564503</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>174</v>
       </c>
     </row>
@@ -712,10 +708,10 @@
       <c r="A28" s="1">
         <v>43491</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>15977505</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>161</v>
       </c>
     </row>
@@ -723,10 +719,10 @@
       <c r="A29" s="1">
         <v>43488</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>13782147</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>144</v>
       </c>
     </row>
@@ -734,10 +730,10 @@
       <c r="A30" s="1">
         <v>43484</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>15585694</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>129</v>
       </c>
     </row>
@@ -745,10 +741,10 @@
       <c r="A31" s="1">
         <v>43481</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>13558629</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>112</v>
       </c>
     </row>
@@ -756,10 +752,10 @@
       <c r="A32" s="1">
         <v>43477</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>13954260</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>96</v>
       </c>
     </row>
@@ -767,10 +763,10 @@
       <c r="A33" s="1">
         <v>43474</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>12073819</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>82</v>
       </c>
     </row>
@@ -778,10 +774,10 @@
       <c r="A34" s="1">
         <v>43470</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>12984367</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>69</v>
       </c>
     </row>
@@ -789,10 +785,10 @@
       <c r="A35" s="1">
         <v>43467</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>12975279</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>53</v>
       </c>
     </row>
@@ -800,10 +796,10 @@
       <c r="A36" s="1">
         <v>43463</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>14335984</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>40</v>
       </c>
     </row>
@@ -811,10 +807,10 @@
       <c r="A37" s="1">
         <v>43460</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>21750801</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>298.3</v>
       </c>
     </row>
@@ -822,10 +818,10 @@
       <c r="A38" s="1">
         <v>43456</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>19497181</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>281</v>
       </c>
     </row>
@@ -833,10 +829,10 @@
       <c r="A39" s="1">
         <v>43453</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>16740289</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>262</v>
       </c>
     </row>
@@ -844,10 +840,10 @@
       <c r="A40" s="1">
         <v>43449</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>17741800</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>246</v>
       </c>
     </row>
@@ -855,10 +851,10 @@
       <c r="A41" s="1">
         <v>43446</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>15689942</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>230</v>
       </c>
     </row>
@@ -866,10 +862,10 @@
       <c r="A42" s="1">
         <v>43442</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>16724466</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>217</v>
       </c>
     </row>
@@ -877,10 +873,10 @@
       <c r="A43" s="1">
         <v>43439</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>15271527</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>200</v>
       </c>
     </row>
@@ -888,10 +884,10 @@
       <c r="A44" s="1">
         <v>43435</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>15804645</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>183</v>
       </c>
     </row>
@@ -899,10 +895,10 @@
       <c r="A45" s="1">
         <v>43432</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>13938907</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>171</v>
       </c>
     </row>
@@ -910,10 +906,10 @@
       <c r="A46" s="1">
         <v>43428</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>14125288</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>155</v>
       </c>
     </row>
@@ -921,10 +917,10 @@
       <c r="A47" s="1">
         <v>43425</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>15068037</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>139</v>
       </c>
     </row>
@@ -932,10 +928,10 @@
       <c r="A48" s="1">
         <v>43421</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>15192629</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>124</v>
       </c>
     </row>
@@ -943,10 +939,10 @@
       <c r="A49" s="1">
         <v>43418</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>13435520</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>107</v>
       </c>
     </row>
@@ -954,10 +950,10 @@
       <c r="A50" s="1">
         <v>43414</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>14455312</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>92</v>
       </c>
     </row>
@@ -965,10 +961,10 @@
       <c r="A51" s="1">
         <v>43411</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>12852030</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>71</v>
       </c>
     </row>
@@ -976,10 +972,10 @@
       <c r="A52" s="1">
         <v>43407</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>14722663</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>53</v>
       </c>
     </row>
@@ -987,10 +983,10 @@
       <c r="A53" s="1">
         <v>43404</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>13594526</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>40</v>
       </c>
     </row>
@@ -998,10 +994,10 @@
       <c r="A54" s="1">
         <v>43400</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>86413920</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>687.8</v>
       </c>
     </row>
@@ -1009,10 +1005,10 @@
       <c r="A55" s="1">
         <v>43397</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>119849014</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>620</v>
       </c>
     </row>
@@ -1020,10 +1016,10 @@
       <c r="A56" s="1">
         <v>43393</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>90674762</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>430</v>
       </c>
     </row>
@@ -1031,10 +1027,10 @@
       <c r="A57" s="1">
         <v>43390</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>55671102</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>345</v>
       </c>
     </row>
@@ -1042,10 +1038,10 @@
       <c r="A58" s="1">
         <v>43386</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>33730534</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>314</v>
       </c>
     </row>
@@ -1053,10 +1049,10 @@
       <c r="A59" s="1">
         <v>43383</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>24025255</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>282</v>
       </c>
     </row>
@@ -1064,10 +1060,10 @@
       <c r="A60" s="1">
         <v>43379</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>22606504</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>253</v>
       </c>
     </row>
@@ -1075,10 +1071,10 @@
       <c r="A61" s="1">
         <v>43376</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>18659213</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>229</v>
       </c>
     </row>
@@ -1086,10 +1082,10 @@
       <c r="A62" s="1">
         <v>43372</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>18507915</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>213</v>
       </c>
     </row>
@@ -1097,10 +1093,10 @@
       <c r="A63" s="1">
         <v>43369</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>15168861</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>193</v>
       </c>
     </row>
@@ -1108,10 +1104,10 @@
       <c r="A64" s="1">
         <v>43365</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>15799020</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>178</v>
       </c>
     </row>
@@ -1119,10 +1115,10 @@
       <c r="A65" s="1">
         <v>43362</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>13697849</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>163</v>
       </c>
     </row>
@@ -1130,10 +1126,10 @@
       <c r="A66" s="1">
         <v>43358</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>14866944</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>147</v>
       </c>
     </row>
@@ -1141,10 +1137,10 @@
       <c r="A67" s="1">
         <v>43355</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>13148776</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>132</v>
       </c>
     </row>
@@ -1152,10 +1148,10 @@
       <c r="A68" s="1">
         <v>43351</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>14157716</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>114</v>
       </c>
     </row>
@@ -1163,10 +1159,10 @@
       <c r="A69" s="1">
         <v>43348</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>12068207</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1174,10 +1170,10 @@
       <c r="A70" s="1">
         <v>43344</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>13021102</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>90</v>
       </c>
     </row>
@@ -1185,10 +1181,10 @@
       <c r="A71" s="1">
         <v>43341</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>10868635</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>80</v>
       </c>
     </row>
@@ -1196,10 +1192,10 @@
       <c r="A72" s="1">
         <v>43337</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>12302519</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>70</v>
       </c>
     </row>
@@ -1207,10 +1203,10 @@
       <c r="A73" s="1">
         <v>43334</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>10733287</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>60</v>
       </c>
     </row>
@@ -1218,10 +1214,10 @@
       <c r="A74" s="1">
         <v>43330</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>12116315</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1229,10 +1225,10 @@
       <c r="A75" s="1">
         <v>43327</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>10758491</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>40</v>
       </c>
     </row>
@@ -1240,10 +1236,10 @@
       <c r="A76" s="1">
         <v>43323</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>22101267</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>245.6</v>
       </c>
     </row>
@@ -1251,10 +1247,10 @@
       <c r="A77" s="1">
         <v>43320</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>20013324</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>223</v>
       </c>
     </row>
@@ -1262,10 +1258,10 @@
       <c r="A78" s="1">
         <v>43316</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>20080098</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>203</v>
       </c>
     </row>
@@ -1273,10 +1269,10 @@
       <c r="A79" s="1">
         <v>43313</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>16414849</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>187</v>
       </c>
     </row>
@@ -1284,10 +1280,10 @@
       <c r="A80" s="1">
         <v>43309</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>16688873</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>168</v>
       </c>
     </row>
@@ -1295,10 +1291,10 @@
       <c r="A81" s="1">
         <v>43306</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>17845999</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>147</v>
       </c>
     </row>
@@ -1306,10 +1302,10 @@
       <c r="A82" s="1">
         <v>43302</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>17334931</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>130</v>
       </c>
     </row>
@@ -1317,10 +1313,10 @@
       <c r="A83" s="1">
         <v>43299</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>13958323</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>110</v>
       </c>
     </row>
@@ -1328,10 +1324,10 @@
       <c r="A84" s="1">
         <v>43295</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>15011773</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1339,10 +1335,10 @@
       <c r="A85" s="1">
         <v>43292</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>11811996</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>90</v>
       </c>
     </row>
@@ -1350,10 +1346,10 @@
       <c r="A86" s="1">
         <v>43288</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>12583827</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>80</v>
       </c>
     </row>
@@ -1361,10 +1357,10 @@
       <c r="A87" s="1">
         <v>43285</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>10824029</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>70</v>
       </c>
     </row>
@@ -1372,10 +1368,10 @@
       <c r="A88" s="1">
         <v>43281</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>12296437</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>60</v>
       </c>
     </row>
@@ -1383,10 +1379,10 @@
       <c r="A89" s="1">
         <v>43278</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>10544766</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1394,10 +1390,10 @@
       <c r="A90" s="1">
         <v>43274</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>12112153</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>40</v>
       </c>
     </row>
@@ -1405,10 +1401,10 @@
       <c r="A91" s="1">
         <v>43271</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>14412018</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>150.4</v>
       </c>
     </row>
@@ -1416,10 +1412,10 @@
       <c r="A92" s="1">
         <v>43267</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>15819612</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>137</v>
       </c>
     </row>
@@ -1427,10 +1423,10 @@
       <c r="A93" s="1">
         <v>43264</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>13815832</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>121</v>
       </c>
     </row>
@@ -1438,10 +1434,10 @@
       <c r="A94" s="1">
         <v>43260</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>14763576</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>105</v>
       </c>
     </row>
@@ -1449,10 +1445,10 @@
       <c r="A95" s="1">
         <v>43257</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>12261040</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>87</v>
       </c>
     </row>
@@ -1460,10 +1456,10 @@
       <c r="A96" s="1">
         <v>43253</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>13685653</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>74</v>
       </c>
     </row>
@@ -1471,10 +1467,10 @@
       <c r="A97" s="1">
         <v>43250</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>11065907</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>60</v>
       </c>
     </row>
@@ -1482,10 +1478,10 @@
       <c r="A98" s="1">
         <v>43246</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>12872527</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1493,10 +1489,10 @@
       <c r="A99" s="1">
         <v>43243</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>11455221</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>40</v>
       </c>
     </row>
@@ -1504,10 +1500,10 @@
       <c r="A100" s="1">
         <v>43239</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>26773912</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>315</v>
       </c>
     </row>
@@ -1515,10 +1511,10 @@
       <c r="A101" s="1">
         <v>43236</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>21826663</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>280</v>
       </c>
     </row>
@@ -1526,10 +1522,10 @@
       <c r="A102" s="1">
         <v>43232</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>22973769</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>257</v>
       </c>
     </row>
@@ -1537,10 +1533,10 @@
       <c r="A103" s="1">
         <v>43229</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>20239756</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>233</v>
       </c>
     </row>
@@ -1548,10 +1544,10 @@
       <c r="A104" s="1">
         <v>43225</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>20301081</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>215</v>
       </c>
     </row>
@@ -1559,10 +1555,10 @@
       <c r="A105" s="1">
         <v>43222</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>17219510</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>195</v>
       </c>
     </row>
@@ -1570,10 +1566,10 @@
       <c r="A106" s="1">
         <v>43218</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>18105229</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>177</v>
       </c>
     </row>
@@ -1581,10 +1577,10 @@
       <c r="A107" s="1">
         <v>43215</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>15955976</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>158</v>
       </c>
     </row>
@@ -1592,10 +1588,10 @@
       <c r="A108" s="1">
         <v>43211</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>17293456</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>142</v>
       </c>
     </row>
@@ -1603,10 +1599,10 @@
       <c r="A109" s="1">
         <v>43208</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>14924250</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>122</v>
       </c>
     </row>
@@ -1614,10 +1610,10 @@
       <c r="A110" s="1">
         <v>43204</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>16213324</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>106</v>
       </c>
     </row>
@@ -1625,10 +1621,10 @@
       <c r="A111" s="1">
         <v>43201</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>13054145</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>89</v>
       </c>
     </row>
@@ -1636,10 +1632,10 @@
       <c r="A112" s="1">
         <v>43197</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>14307717</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>74</v>
       </c>
     </row>
@@ -1647,10 +1643,10 @@
       <c r="A113" s="1">
         <v>43194</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>11918237</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>60</v>
       </c>
     </row>
@@ -1658,10 +1654,10 @@
       <c r="A114" s="1">
         <v>43190</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>15937978</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1669,10 +1665,10 @@
       <c r="A115" s="1">
         <v>43187</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>12447019</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>40</v>
       </c>
     </row>
@@ -1680,10 +1676,10 @@
       <c r="A116" s="1">
         <v>43183</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>14103266</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>55.9</v>
       </c>
     </row>
@@ -1691,10 +1687,10 @@
       <c r="A117" s="1">
         <v>43180</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>12340856</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>40</v>
       </c>
     </row>
@@ -1702,10 +1698,10 @@
       <c r="A118" s="1">
         <v>43176</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>44791214</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>456.7</v>
       </c>
     </row>
@@ -1713,10 +1709,10 @@
       <c r="A119" s="1">
         <v>43173</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>36246189</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>420</v>
       </c>
     </row>
@@ -1724,10 +1720,10 @@
       <c r="A120" s="1">
         <v>43169</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>31595593</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>385</v>
       </c>
     </row>
@@ -1735,10 +1731,10 @@
       <c r="A121" s="1">
         <v>43166</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>27357412</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>348</v>
       </c>
     </row>
@@ -1746,10 +1742,10 @@
       <c r="A122" s="1">
         <v>43162</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>27711369</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>321</v>
       </c>
     </row>
@@ -1757,10 +1753,10 @@
       <c r="A123" s="1">
         <v>43159</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>22856063</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="3">
         <v>293</v>
       </c>
     </row>
@@ -1768,10 +1764,10 @@
       <c r="A124" s="1">
         <v>43155</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>22866868</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="3">
         <v>269</v>
       </c>
     </row>
@@ -1779,10 +1775,10 @@
       <c r="A125" s="1">
         <v>43152</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>19609833</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>246</v>
       </c>
     </row>
@@ -1790,10 +1786,10 @@
       <c r="A126" s="1">
         <v>43148</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>21262539</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <v>223</v>
       </c>
     </row>
@@ -1801,10 +1797,10 @@
       <c r="A127" s="1">
         <v>43145</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>18515054</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="3">
         <v>203</v>
       </c>
     </row>
@@ -1812,10 +1808,10 @@
       <c r="A128" s="1">
         <v>43141</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>18340583</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>184</v>
       </c>
     </row>
@@ -1823,10 +1819,10 @@
       <c r="A129" s="1">
         <v>43138</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>15652638</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <v>165</v>
       </c>
     </row>
@@ -1834,10 +1830,10 @@
       <c r="A130" s="1">
         <v>43134</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>17937561</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="3">
         <v>145</v>
       </c>
     </row>
@@ -1845,10 +1841,10 @@
       <c r="A131" s="1">
         <v>43131</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>15097182</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="3">
         <v>127</v>
       </c>
     </row>
@@ -1856,10 +1852,10 @@
       <c r="A132" s="1">
         <v>43127</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>16550828</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="3">
         <v>112</v>
       </c>
     </row>
@@ -1867,10 +1863,10 @@
       <c r="A133" s="1">
         <v>43124</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>13570900</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="3">
         <v>92</v>
       </c>
     </row>
@@ -1878,10 +1874,10 @@
       <c r="A134" s="1">
         <v>43120</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>15024559</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>78</v>
       </c>
     </row>
@@ -1889,10 +1885,10 @@
       <c r="A135" s="1">
         <v>43117</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>12387150</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <v>62</v>
       </c>
     </row>
@@ -1900,10 +1896,10 @@
       <c r="A136" s="1">
         <v>43113</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>14293921</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1911,10 +1907,10 @@
       <c r="A137" s="1">
         <v>43110</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>13498238</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <v>40</v>
       </c>
     </row>
@@ -1922,10 +1918,10 @@
       <c r="A138" s="1">
         <v>43106</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>100846044</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>559.70000000000005</v>
       </c>
     </row>
@@ -1933,10 +1929,10 @@
       <c r="A139" s="1">
         <v>43103</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>74571839</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>440</v>
       </c>
     </row>
@@ -1944,10 +1940,10 @@
       <c r="A140" s="1">
         <v>43099</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>57134436</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>384</v>
       </c>
     </row>
@@ -1955,10 +1951,10 @@
       <c r="A141" s="1">
         <v>43096</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>31998364</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>337</v>
       </c>
     </row>
@@ -1966,10 +1962,10 @@
       <c r="A142" s="1">
         <v>43092</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>33351708</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>300</v>
       </c>
     </row>
@@ -1977,10 +1973,10 @@
       <c r="A143" s="1">
         <v>43089</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>24267586</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>269</v>
       </c>
     </row>
@@ -1988,10 +1984,10 @@
       <c r="A144" s="1">
         <v>43085</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>22620444</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="3">
         <v>250</v>
       </c>
     </row>
@@ -1999,10 +1995,10 @@
       <c r="A145" s="1">
         <v>43082</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>19319102</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="3">
         <v>229</v>
       </c>
     </row>
@@ -2010,10 +2006,10 @@
       <c r="A146" s="1">
         <v>43078</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>19129745</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="3">
         <v>212</v>
       </c>
     </row>
@@ -2021,10 +2017,10 @@
       <c r="A147" s="1">
         <v>43075</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>16489484</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="3">
         <v>193</v>
       </c>
     </row>
@@ -2032,10 +2028,10 @@
       <c r="A148" s="1">
         <v>43071</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>16921067</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="3">
         <v>177</v>
       </c>
     </row>
@@ -2043,10 +2039,10 @@
       <c r="A149" s="1">
         <v>43068</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>14653007</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="3">
         <v>163</v>
       </c>
     </row>
@@ -2054,10 +2050,10 @@
       <c r="A150" s="1">
         <v>43064</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>14221360</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>149</v>
       </c>
     </row>
@@ -2065,10 +2061,10 @@
       <c r="A151" s="1">
         <v>43061</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>14962676</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <v>134</v>
       </c>
     </row>
@@ -2076,10 +2072,10 @@
       <c r="A152" s="1">
         <v>43057</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>14754865</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="3">
         <v>119</v>
       </c>
     </row>
@@ -2087,10 +2083,10 @@
       <c r="A153" s="1">
         <v>43054</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>13192678</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="3">
         <v>103</v>
       </c>
     </row>
@@ -2098,10 +2094,10 @@
       <c r="A154" s="1">
         <v>43050</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>13319662</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="3">
         <v>90</v>
       </c>
     </row>
@@ -2109,10 +2105,10 @@
       <c r="A155" s="1">
         <v>43047</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>11717617</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="3">
         <v>75</v>
       </c>
     </row>
@@ -2120,10 +2116,10 @@
       <c r="A156" s="1">
         <v>43043</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>12867809</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="3">
         <v>64</v>
       </c>
     </row>
@@ -2131,10 +2127,10 @@
       <c r="A157" s="1">
         <v>43040</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>11093300</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="3">
         <v>52</v>
       </c>
     </row>
@@ -2142,10 +2138,10 @@
       <c r="A158" s="1">
         <v>43036</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>12186891</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2153,10 +2149,10 @@
       <c r="A159" s="1">
         <v>43033</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>17429345</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="3">
         <v>191</v>
       </c>
     </row>
@@ -2164,10 +2160,10 @@
       <c r="A160" s="1">
         <v>43029</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>17812039</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="3">
         <v>173</v>
       </c>
     </row>
@@ -2175,10 +2171,10 @@
       <c r="A161" s="1">
         <v>43026</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>15685636</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="3">
         <v>156</v>
       </c>
     </row>
@@ -2186,10 +2182,10 @@
       <c r="A162" s="1">
         <v>43022</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>16353787</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="3">
         <v>143</v>
       </c>
     </row>
@@ -2197,10 +2193,10 @@
       <c r="A163" s="1">
         <v>43019</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>14238622</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="3">
         <v>128</v>
       </c>
     </row>
@@ -2208,10 +2204,10 @@
       <c r="A164" s="1">
         <v>43015</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>15092752</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="3">
         <v>112</v>
       </c>
     </row>
@@ -2219,10 +2215,10 @@
       <c r="A165" s="1">
         <v>43012</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>12846574</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="3">
         <v>94</v>
       </c>
     </row>
@@ -2230,10 +2226,10 @@
       <c r="A166" s="1">
         <v>43008</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>13594244</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2241,10 +2237,10 @@
       <c r="A167" s="1">
         <v>43005</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>11651894</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="3">
         <v>66</v>
       </c>
     </row>
@@ -2252,10 +2248,10 @@
       <c r="A168" s="1">
         <v>43001</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>12486306</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="3">
         <v>53</v>
       </c>
     </row>
@@ -2263,10 +2259,10 @@
       <c r="A169" s="1">
         <v>42998</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>11245548</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2274,10 +2270,10 @@
       <c r="A170" s="1">
         <v>42994</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>16503405</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="3">
         <v>132</v>
       </c>
     </row>
@@ -2285,10 +2281,10 @@
       <c r="A171" s="1">
         <v>42991</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>14433051</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>115</v>
       </c>
     </row>
@@ -2296,10 +2292,10 @@
       <c r="A172" s="1">
         <v>42987</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>15781789</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>102</v>
       </c>
     </row>
@@ -2307,10 +2303,10 @@
       <c r="A173" s="1">
         <v>42984</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="2">
         <v>13397758</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>83</v>
       </c>
     </row>
@@ -2318,10 +2314,10 @@
       <c r="A174" s="1">
         <v>42980</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>15266985</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>68</v>
       </c>
     </row>
@@ -2329,10 +2325,10 @@
       <c r="A175" s="1">
         <v>42977</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="2">
         <v>13314777</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="3">
         <v>53</v>
       </c>
     </row>
@@ -2340,10 +2336,10 @@
       <c r="A176" s="1">
         <v>42973</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="2">
         <v>15363092</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2351,10 +2347,10 @@
       <c r="A177" s="1">
         <v>42970</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="2">
         <v>228841602</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="3">
         <v>758.7</v>
       </c>
     </row>
@@ -2362,10 +2358,10 @@
       <c r="A178" s="1">
         <v>42966</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>113687199</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="3">
         <v>535</v>
       </c>
     </row>
@@ -2373,10 +2369,10 @@
       <c r="A179" s="1">
         <v>42963</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="2">
         <v>64970596</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="3">
         <v>430</v>
       </c>
     </row>
@@ -2384,10 +2380,10 @@
       <c r="A180" s="1">
         <v>42959</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2">
         <v>53947491</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="3">
         <v>356</v>
       </c>
     </row>
@@ -2395,10 +2391,10 @@
       <c r="A181" s="1">
         <v>42956</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>38091720</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="3">
         <v>307</v>
       </c>
     </row>
@@ -2406,10 +2402,10 @@
       <c r="A182" s="1">
         <v>42952</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2">
         <v>28805115</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="3">
         <v>286</v>
       </c>
     </row>
@@ -2417,10 +2413,10 @@
       <c r="A183" s="1">
         <v>42949</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>20878595</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="3">
         <v>261</v>
       </c>
     </row>
@@ -2428,10 +2424,10 @@
       <c r="A184" s="1">
         <v>42945</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="2">
         <v>21225766</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="3">
         <v>239</v>
       </c>
     </row>
@@ -2439,10 +2435,10 @@
       <c r="A185" s="1">
         <v>42942</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2">
         <v>18298074</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="3">
         <v>220</v>
       </c>
     </row>
@@ -2450,10 +2446,10 @@
       <c r="A186" s="1">
         <v>42938</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="2">
         <v>18926033</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="3">
         <v>205</v>
       </c>
     </row>
@@ -2461,10 +2457,10 @@
       <c r="A187" s="1">
         <v>42935</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>16037372</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="3">
         <v>187</v>
       </c>
     </row>
@@ -2472,10 +2468,10 @@
       <c r="A188" s="1">
         <v>42931</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2">
         <v>17168945</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="3">
         <v>172</v>
       </c>
     </row>
@@ -2483,10 +2479,10 @@
       <c r="A189" s="1">
         <v>42928</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2">
         <v>15064553</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="3">
         <v>155</v>
       </c>
     </row>
@@ -2494,10 +2490,10 @@
       <c r="A190" s="1">
         <v>42924</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2">
         <v>15867145</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="3">
         <v>140</v>
       </c>
     </row>
@@ -2505,10 +2501,10 @@
       <c r="A191" s="1">
         <v>42921</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2">
         <v>13047589</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="3">
         <v>121</v>
       </c>
     </row>
@@ -2516,10 +2512,10 @@
       <c r="A192" s="1">
         <v>42917</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="2">
         <v>14771246</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="3">
         <v>106</v>
       </c>
     </row>
@@ -2527,10 +2523,10 @@
       <c r="A193" s="1">
         <v>42914</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>12281657</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="3">
         <v>92</v>
       </c>
     </row>
@@ -2538,10 +2534,10 @@
       <c r="A194" s="1">
         <v>42910</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="2">
         <v>13068148</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="3">
         <v>79</v>
       </c>
     </row>
@@ -2549,10 +2545,10 @@
       <c r="A195" s="1">
         <v>42907</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>11467702</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="3">
         <v>64</v>
       </c>
     </row>
@@ -2560,10 +2556,10 @@
       <c r="A196" s="1">
         <v>42903</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="2">
         <v>12773447</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="3">
         <v>52</v>
       </c>
     </row>
@@ -2571,10 +2567,10 @@
       <c r="A197" s="1">
         <v>42900</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="2">
         <v>11511527</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2582,10 +2578,10 @@
       <c r="A198" s="1">
         <v>42896</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2">
         <v>67058726</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="3">
         <v>448.7</v>
       </c>
     </row>
@@ -2593,10 +2589,10 @@
       <c r="A199" s="1">
         <v>42893</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>44618553</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="3">
         <v>375</v>
       </c>
     </row>
@@ -2604,10 +2600,10 @@
       <c r="A200" s="1">
         <v>42889</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>38696865</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="3">
         <v>337</v>
       </c>
     </row>
@@ -2615,10 +2611,10 @@
       <c r="A201" s="1">
         <v>42886</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>30853111</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="3">
         <v>302</v>
       </c>
     </row>
@@ -2626,10 +2622,10 @@
       <c r="A202" s="1">
         <v>42882</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="2">
         <v>26987287</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="3">
         <v>275</v>
       </c>
     </row>
@@ -2637,10 +2633,10 @@
       <c r="A203" s="1">
         <v>42879</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="2">
         <v>23672688</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="3">
         <v>250</v>
       </c>
     </row>
@@ -2648,10 +2644,10 @@
       <c r="A204" s="1">
         <v>42875</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="2">
         <v>23444667</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="3">
         <v>228</v>
       </c>
     </row>
@@ -2659,10 +2655,10 @@
       <c r="A205" s="1">
         <v>42872</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="2">
         <v>20972519</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="3">
         <v>204</v>
       </c>
     </row>
@@ -2670,10 +2666,10 @@
       <c r="A206" s="1">
         <v>42868</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="2">
         <v>19430226</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="3">
         <v>184</v>
       </c>
     </row>
@@ -2681,10 +2677,10 @@
       <c r="A207" s="1">
         <v>42865</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="2">
         <v>17166512</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="3">
         <v>165</v>
       </c>
     </row>
@@ -2692,10 +2688,10 @@
       <c r="A208" s="1">
         <v>42861</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="2">
         <v>17608422</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="3">
         <v>147</v>
       </c>
     </row>
@@ -2703,10 +2699,10 @@
       <c r="A209" s="1">
         <v>42858</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="2">
         <v>15596177</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="3">
         <v>130</v>
       </c>
     </row>
@@ -2714,10 +2710,10 @@
       <c r="A210" s="1">
         <v>42854</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="2">
         <v>15904814</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="3">
         <v>113</v>
       </c>
     </row>
@@ -2725,10 +2721,10 @@
       <c r="A211" s="1">
         <v>42851</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="2">
         <v>14226117</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2736,10 +2732,10 @@
       <c r="A212" s="1">
         <v>42847</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="2">
         <v>14008192</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="3">
         <v>90</v>
       </c>
     </row>
@@ -2747,10 +2743,10 @@
       <c r="A213" s="1">
         <v>42844</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="2">
         <v>12086114</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2758,10 +2754,10 @@
       <c r="A214" s="1">
         <v>42840</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="2">
         <v>13308094</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="3">
         <v>70</v>
       </c>
     </row>
@@ -2769,10 +2765,10 @@
       <c r="A215" s="1">
         <v>42837</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="2">
         <v>11524944</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215" s="3">
         <v>60</v>
       </c>
     </row>
@@ -2780,10 +2776,10 @@
       <c r="A216" s="1">
         <v>42833</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="2">
         <v>12480521</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="3">
         <v>50</v>
       </c>
     </row>
@@ -2791,10 +2787,10 @@
       <c r="A217" s="1">
         <v>42830</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="2">
         <v>11045268</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2802,10 +2798,10 @@
       <c r="A218" s="1">
         <v>42826</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="2">
         <v>12951410</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="3">
         <v>60</v>
       </c>
     </row>
@@ -2813,10 +2809,10 @@
       <c r="A219" s="1">
         <v>42823</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="2">
         <v>11233979</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="3">
         <v>50</v>
       </c>
     </row>
@@ -2824,10 +2820,10 @@
       <c r="A220" s="1">
         <v>42819</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="2">
         <v>12868712</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2835,10 +2831,10 @@
       <c r="A221" s="1">
         <v>42816</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="2">
         <v>16277301</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="3">
         <v>155</v>
       </c>
     </row>
@@ -2846,10 +2842,10 @@
       <c r="A222" s="1">
         <v>42812</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="2">
         <v>17450121</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="3">
         <v>141</v>
       </c>
     </row>
@@ -2857,10 +2853,10 @@
       <c r="A223" s="1">
         <v>42809</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="2">
         <v>14925612</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="3">
         <v>123</v>
       </c>
     </row>
@@ -2868,10 +2864,10 @@
       <c r="A224" s="1">
         <v>42805</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="2">
         <v>16275107</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="3">
         <v>104</v>
       </c>
     </row>
@@ -2879,10 +2875,10 @@
       <c r="A225" s="1">
         <v>42802</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="2">
         <v>13468239</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225" s="3">
         <v>85</v>
       </c>
     </row>
@@ -2890,10 +2886,10 @@
       <c r="A226" s="1">
         <v>42798</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="2">
         <v>14434327</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226" s="3">
         <v>68</v>
       </c>
     </row>
@@ -2901,10 +2897,10 @@
       <c r="A227" s="1">
         <v>42795</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="2">
         <v>12506202</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="3">
         <v>53</v>
       </c>
     </row>
@@ -2912,10 +2908,10 @@
       <c r="A228" s="1">
         <v>42791</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="2">
         <v>13888704</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2923,10 +2919,10 @@
       <c r="A229" s="1">
         <v>42788</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="2">
         <v>74952749</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="3">
         <v>435.3</v>
       </c>
     </row>
@@ -2934,10 +2930,10 @@
       <c r="A230" s="1">
         <v>42784</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="2">
         <v>41665696</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="3">
         <v>349</v>
       </c>
     </row>
@@ -2945,10 +2941,10 @@
       <c r="A231" s="1">
         <v>42781</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="2">
         <v>33754629</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="3">
         <v>310</v>
       </c>
     </row>
@@ -2956,10 +2952,10 @@
       <c r="A232" s="1">
         <v>42777</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="2">
         <v>28146160</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="3">
         <v>285</v>
       </c>
     </row>
@@ -2967,10 +2963,10 @@
       <c r="A233" s="1">
         <v>42774</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="2">
         <v>24958367</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="3">
         <v>255</v>
       </c>
     </row>
@@ -2978,10 +2974,10 @@
       <c r="A234" s="1">
         <v>42770</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="2">
         <v>24638291</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="3">
         <v>229</v>
       </c>
     </row>
@@ -2989,10 +2985,10 @@
       <c r="A235" s="1">
         <v>42767</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="2">
         <v>20669972</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="3">
         <v>206</v>
       </c>
     </row>
@@ -3000,10 +2996,10 @@
       <c r="A236" s="1">
         <v>42763</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="2">
         <v>18821356</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="3">
         <v>187</v>
       </c>
     </row>
@@ -3011,10 +3007,10 @@
       <c r="A237" s="1">
         <v>42760</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
         <v>15589230</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="3">
         <v>170</v>
       </c>
     </row>
@@ -3022,10 +3018,10 @@
       <c r="A238" s="1">
         <v>42756</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="2">
         <v>16557567</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="3">
         <v>153</v>
       </c>
     </row>
@@ -3033,10 +3029,10 @@
       <c r="A239" s="1">
         <v>42753</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="2">
         <v>14154095</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="3">
         <v>135</v>
       </c>
     </row>
@@ -3044,10 +3040,10 @@
       <c r="A240" s="1">
         <v>42749</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="2">
         <v>15910411</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240" s="3">
         <v>121</v>
       </c>
     </row>
@@ -3055,10 +3051,10 @@
       <c r="A241" s="1">
         <v>42746</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="2">
         <v>13180846</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="3">
         <v>106</v>
       </c>
     </row>
@@ -3066,10 +3062,10 @@
       <c r="A242" s="1">
         <v>42742</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="2">
         <v>13184353</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242" s="3">
         <v>94</v>
       </c>
     </row>
@@ -3077,10 +3073,10 @@
       <c r="A243" s="1">
         <v>42739</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="2">
         <v>11933816</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="3">
         <v>80</v>
       </c>
     </row>
@@ -3088,10 +3084,10 @@
       <c r="A244" s="1">
         <v>42735</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="2">
         <v>16059366</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244" s="3">
         <v>70</v>
       </c>
     </row>
@@ -3099,10 +3095,10 @@
       <c r="A245" s="1">
         <v>42732</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="2">
         <v>11276996</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245" s="3">
         <v>60</v>
       </c>
     </row>
@@ -3110,10 +3106,10 @@
       <c r="A246" s="1">
         <v>42728</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="2">
         <v>15011424</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246" s="3">
         <v>50</v>
       </c>
     </row>
@@ -3121,10 +3117,10 @@
       <c r="A247" s="1">
         <v>42725</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="2">
         <v>11363334</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247" s="3">
         <v>40</v>
       </c>
     </row>
@@ -3132,10 +3128,10 @@
       <c r="A248" s="1">
         <v>42721</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="2">
         <v>16131673</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="3">
         <v>121.6</v>
       </c>
     </row>
@@ -3143,10 +3139,10 @@
       <c r="A249" s="1">
         <v>42718</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="2">
         <v>14729202</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249" s="3">
         <v>100</v>
       </c>
     </row>
@@ -3154,10 +3150,10 @@
       <c r="A250" s="1">
         <v>42714</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="2">
         <v>14129378</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250" s="3">
         <v>85</v>
       </c>
     </row>
@@ -3165,10 +3161,10 @@
       <c r="A251" s="1">
         <v>42711</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="2">
         <v>12305452</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="3">
         <v>67</v>
       </c>
     </row>
@@ -3176,10 +3172,10 @@
       <c r="A252" s="1">
         <v>42707</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="2">
         <v>13391071</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252" s="3">
         <v>54</v>
       </c>
     </row>
@@ -3187,10 +3183,10 @@
       <c r="A253" s="1">
         <v>42704</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="2">
         <v>11572834</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253" s="3">
         <v>40</v>
       </c>
     </row>
@@ -3198,10 +3194,10 @@
       <c r="A254" s="1">
         <v>42700</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="2">
         <v>47266822</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254" s="3">
         <v>420.9</v>
       </c>
     </row>
@@ -3209,10 +3205,10 @@
       <c r="A255" s="1">
         <v>42697</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="2">
         <v>37147138</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255" s="3">
         <v>359</v>
       </c>
     </row>
@@ -3220,10 +3216,10 @@
       <c r="A256" s="1">
         <v>42693</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="2">
         <v>30381648</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256" s="3">
         <v>320</v>
       </c>
     </row>
@@ -3231,10 +3227,10 @@
       <c r="A257" s="1">
         <v>42690</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="2">
         <v>25043094</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257" s="3">
         <v>293</v>
       </c>
     </row>
@@ -3242,10 +3238,10 @@
       <c r="A258" s="1">
         <v>42686</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="2">
         <v>23444932</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258" s="3">
         <v>258</v>
       </c>
     </row>
@@ -3253,10 +3249,10 @@
       <c r="A259" s="1">
         <v>42683</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="2">
         <v>20818016</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259" s="3">
         <v>236</v>
       </c>
     </row>
@@ -3264,10 +3260,10 @@
       <c r="A260" s="1">
         <v>42679</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="2">
         <v>21478384</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260" s="3">
         <v>217</v>
       </c>
     </row>
@@ -3275,10 +3271,10 @@
       <c r="A261" s="1">
         <v>42676</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="2">
         <v>17945598</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261" s="3">
         <v>198</v>
       </c>
     </row>
@@ -3286,10 +3282,10 @@
       <c r="A262" s="1">
         <v>42672</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="2">
         <v>17651852</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262" s="3">
         <v>180</v>
       </c>
     </row>
@@ -3297,10 +3293,10 @@
       <c r="A263" s="1">
         <v>42669</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="2">
         <v>15652337</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263" s="3">
         <v>164</v>
       </c>
     </row>
@@ -3308,10 +3304,10 @@
       <c r="A264" s="1">
         <v>42665</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="2">
         <v>16586749</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264" s="3">
         <v>151</v>
       </c>
     </row>
@@ -3319,10 +3315,10 @@
       <c r="A265" s="1">
         <v>42662</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>14647256</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265" s="3">
         <v>136</v>
       </c>
     </row>
@@ -3330,10 +3326,10 @@
       <c r="A266" s="1">
         <v>42658</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="2">
         <v>15685446</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="3">
         <v>122</v>
       </c>
     </row>
@@ -3341,10 +3337,10 @@
       <c r="A267" s="1">
         <v>42655</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="2">
         <v>13539552</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="3">
         <v>107</v>
       </c>
     </row>
@@ -3352,10 +3348,10 @@
       <c r="A268" s="1">
         <v>42651</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="2">
         <v>13680854</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="3">
         <v>91</v>
       </c>
     </row>
@@ -3363,10 +3359,10 @@
       <c r="A269" s="1">
         <v>42648</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="2">
         <v>12319912</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="3">
         <v>80</v>
       </c>
     </row>
@@ -3374,10 +3370,10 @@
       <c r="A270" s="1">
         <v>42644</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="2">
         <v>13529320</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="3">
         <v>70</v>
       </c>
     </row>
@@ -3385,10 +3381,10 @@
       <c r="A271" s="1">
         <v>42641</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="2">
         <v>11558313</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="3">
         <v>60</v>
       </c>
     </row>
@@ -3396,10 +3392,10 @@
       <c r="A272" s="1">
         <v>42637</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="2">
         <v>12633761</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="3">
         <v>50</v>
       </c>
     </row>
@@ -3407,10 +3403,10 @@
       <c r="A273" s="1">
         <v>42634</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="2">
         <v>11231180</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273" s="3">
         <v>40</v>
       </c>
     </row>
@@ -3418,10 +3414,10 @@
       <c r="A274" s="1">
         <v>42630</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="2">
         <v>22115862</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274" s="3">
         <v>244</v>
       </c>
     </row>
@@ -3429,10 +3425,10 @@
       <c r="A275" s="1">
         <v>42627</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="2">
         <v>19795129</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C275" s="3">
         <v>222</v>
       </c>
     </row>
@@ -3440,10 +3436,10 @@
       <c r="A276" s="1">
         <v>42623</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="2">
         <v>20171285</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276" s="3">
         <v>205</v>
       </c>
     </row>
@@ -3451,10 +3447,10 @@
       <c r="A277" s="1">
         <v>42620</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="2">
         <v>16773364</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277" s="3">
         <v>186</v>
       </c>
     </row>
@@ -3462,10 +3458,10 @@
       <c r="A278" s="1">
         <v>42616</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="2">
         <v>18576104</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278" s="3">
         <v>170</v>
       </c>
     </row>
@@ -3473,10 +3469,10 @@
       <c r="A279" s="1">
         <v>42613</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="2">
         <v>16013013</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279" s="3">
         <v>154</v>
       </c>
     </row>
@@ -3484,10 +3480,10 @@
       <c r="A280" s="1">
         <v>42609</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="2">
         <v>17240544</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280" s="3">
         <v>142</v>
       </c>
     </row>
@@ -3495,10 +3491,10 @@
       <c r="A281" s="1">
         <v>42606</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="2">
         <v>15314846</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281" s="3">
         <v>127</v>
       </c>
     </row>
@@ -3506,10 +3502,10 @@
       <c r="A282" s="1">
         <v>42602</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="2">
         <v>16424943</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282" s="3">
         <v>110</v>
       </c>
     </row>
@@ -3517,10 +3513,10 @@
       <c r="A283" s="1">
         <v>42599</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="2">
         <v>13955539</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283" s="3">
         <v>94</v>
       </c>
     </row>
@@ -3528,10 +3524,10 @@
       <c r="A284" s="1">
         <v>42595</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="2">
         <v>15014693</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284" s="3">
         <v>82</v>
       </c>
     </row>
@@ -3539,10 +3535,10 @@
       <c r="A285" s="1">
         <v>42592</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="2">
         <v>13187319</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285" s="3">
         <v>67</v>
       </c>
     </row>
@@ -3550,10 +3546,10 @@
       <c r="A286" s="1">
         <v>42588</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="2">
         <v>14518691</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286" s="3">
         <v>52</v>
       </c>
     </row>
@@ -3561,10 +3557,10 @@
       <c r="A287" s="1">
         <v>42585</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="2">
         <v>13593064</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287" s="3">
         <v>40</v>
       </c>
     </row>
@@ -3572,10 +3568,10 @@
       <c r="A288" s="1">
         <v>42581</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="2">
         <v>68361125</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288" s="3">
         <v>48</v>
       </c>
     </row>
@@ -3583,10 +3579,10 @@
       <c r="A289" s="1">
         <v>42578</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="2">
         <v>50343855</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289" s="3">
         <v>422</v>
       </c>
     </row>
@@ -3594,10 +3590,10 @@
       <c r="A290" s="1">
         <v>42574</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="2">
         <v>33723893</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C290" s="3">
         <v>390</v>
       </c>
     </row>
@@ -3605,10 +3601,10 @@
       <c r="A291" s="1">
         <v>42571</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="2">
         <v>29351860</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291" s="3">
         <v>361</v>
       </c>
     </row>
@@ -3616,10 +3612,10 @@
       <c r="A292" s="1">
         <v>42567</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="2">
         <v>28901102</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292" s="3">
         <v>333</v>
       </c>
     </row>
@@ -3627,10 +3623,10 @@
       <c r="A293" s="1">
         <v>42564</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="2">
         <v>25764556</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293" s="3">
         <v>311</v>
       </c>
     </row>
@@ -3638,10 +3634,10 @@
       <c r="A294" s="1">
         <v>42560</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="2">
         <v>28456157</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294" s="3">
         <v>288</v>
       </c>
     </row>
@@ -3649,10 +3645,10 @@
       <c r="A295" s="1">
         <v>42557</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="2">
         <v>25790112</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295" s="3">
         <v>257</v>
       </c>
     </row>
@@ -3660,10 +3656,10 @@
       <c r="A296" s="1">
         <v>42553</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="2">
         <v>25601922</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296" s="3">
         <v>243</v>
       </c>
     </row>
@@ -3671,10 +3667,10 @@
       <c r="A297" s="1">
         <v>42550</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="2">
         <v>19878010</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297" s="3">
         <v>222</v>
       </c>
     </row>
@@ -3682,10 +3678,10 @@
       <c r="A298" s="1">
         <v>42546</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="2">
         <v>19473471</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298" s="3">
         <v>203</v>
       </c>
     </row>
@@ -3693,10 +3689,10 @@
       <c r="A299" s="1">
         <v>42543</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="2">
         <v>16145468</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299" s="3">
         <v>184</v>
       </c>
     </row>
@@ -3704,10 +3700,10 @@
       <c r="A300" s="1">
         <v>42539</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="2">
         <v>16993189</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300" s="3">
         <v>169</v>
       </c>
     </row>
@@ -3715,10 +3711,10 @@
       <c r="A301" s="1">
         <v>42536</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="2">
         <v>15058732</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301" s="3">
         <v>153</v>
       </c>
     </row>
@@ -3726,10 +3722,10 @@
       <c r="A302" s="1">
         <v>42532</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="2">
         <v>15934844</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="3">
         <v>141</v>
       </c>
     </row>
@@ -3737,10 +3733,10 @@
       <c r="A303" s="1">
         <v>42529</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="2">
         <v>14395757</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303" s="3">
         <v>123</v>
       </c>
     </row>
@@ -3748,10 +3744,10 @@
       <c r="A304" s="1">
         <v>42525</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="2">
         <v>15580792</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304" s="3">
         <v>110</v>
       </c>
     </row>
@@ -3759,10 +3755,10 @@
       <c r="A305" s="1">
         <v>42522</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="2">
         <v>13384664</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305" s="3">
         <v>100</v>
       </c>
     </row>
@@ -3770,10 +3766,10 @@
       <c r="A306" s="1">
         <v>42518</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="2">
         <v>13887418</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306" s="3">
         <v>90</v>
       </c>
     </row>
@@ -3781,10 +3777,10 @@
       <c r="A307" s="1">
         <v>42515</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="2">
         <v>12305024</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307" s="3">
         <v>80</v>
       </c>
     </row>
@@ -3792,10 +3788,10 @@
       <c r="A308" s="1">
         <v>42511</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="2">
         <v>13619669</v>
       </c>
-      <c r="C308" s="4">
+      <c r="C308" s="3">
         <v>70</v>
       </c>
     </row>
@@ -3803,10 +3799,10 @@
       <c r="A309" s="1">
         <v>42508</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="2">
         <v>12130314</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309" s="3">
         <v>60</v>
       </c>
     </row>
@@ -3814,10 +3810,10 @@
       <c r="A310" s="1">
         <v>42504</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="2">
         <v>13355297</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310" s="3">
         <v>50</v>
       </c>
     </row>
@@ -3825,10 +3821,10 @@
       <c r="A311" s="1">
         <v>42501</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="2">
         <v>12286113</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311" s="3">
         <v>40</v>
       </c>
     </row>
@@ -3836,10 +3832,10 @@
       <c r="A312" s="1">
         <v>42497</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="2">
         <v>73980979</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312" s="3">
         <v>429</v>
       </c>
     </row>
@@ -3847,10 +3843,10 @@
       <c r="A313" s="1">
         <v>42494</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="2">
         <v>45686161</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313" s="3">
         <v>361</v>
       </c>
     </row>
@@ -3858,10 +3854,10 @@
       <c r="A314" s="1">
         <v>42490</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="2">
         <v>30988326</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314" s="3">
         <v>314</v>
       </c>
     </row>
@@ -3869,10 +3865,10 @@
       <c r="A315" s="1">
         <v>42487</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="2">
         <v>24574226</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315" s="3">
         <v>282</v>
       </c>
     </row>
@@ -3880,10 +3876,10 @@
       <c r="A316" s="1">
         <v>42483</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="2">
         <v>23703632</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316" s="3">
         <v>251</v>
       </c>
     </row>
@@ -3891,10 +3887,10 @@
       <c r="A317" s="1">
         <v>42480</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="2">
         <v>21514355</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317" s="3">
         <v>227</v>
       </c>
     </row>
@@ -3902,10 +3898,10 @@
       <c r="A318" s="1">
         <v>42476</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="2">
         <v>21231729</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318" s="3">
         <v>205</v>
       </c>
     </row>
@@ -3913,10 +3909,10 @@
       <c r="A319" s="1">
         <v>42473</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="2">
         <v>17833252</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319" s="3">
         <v>184</v>
       </c>
     </row>
@@ -3924,10 +3920,10 @@
       <c r="A320" s="1">
         <v>42469</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="2">
         <v>18041910</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320" s="3">
         <v>168</v>
       </c>
     </row>
@@ -3935,10 +3931,10 @@
       <c r="A321" s="1">
         <v>42466</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="2">
         <v>16172722</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321" s="3">
         <v>148</v>
       </c>
     </row>
@@ -3946,10 +3942,10 @@
       <c r="A322" s="1">
         <v>42462</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="2">
         <v>17100724</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322" s="3">
         <v>135</v>
       </c>
     </row>
@@ -3957,10 +3953,10 @@
       <c r="A323" s="1">
         <v>42459</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="2">
         <v>14832745</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323" s="3">
         <v>116</v>
       </c>
     </row>
@@ -3968,10 +3964,10 @@
       <c r="A324" s="1">
         <v>42455</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="2">
         <v>16026004</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324" s="3">
         <v>101</v>
       </c>
     </row>
@@ -3979,10 +3975,10 @@
       <c r="A325" s="1">
         <v>42452</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="2">
         <v>13364191</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325" s="3">
         <v>90</v>
       </c>
     </row>
@@ -3990,10 +3986,10 @@
       <c r="A326" s="1">
         <v>42448</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="2">
         <v>14230565</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326" s="3">
         <v>80</v>
       </c>
     </row>
@@ -4001,10 +3997,10 @@
       <c r="A327" s="1">
         <v>42445</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="2">
         <v>12819813</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4012,10 +4008,10 @@
       <c r="A328" s="1">
         <v>42441</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="2">
         <v>13820128</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4023,10 +4019,10 @@
       <c r="A329" s="1">
         <v>42438</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="2">
         <v>12481221</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329" s="3">
         <v>50</v>
       </c>
     </row>
@@ -4034,10 +4030,10 @@
       <c r="A330" s="1">
         <v>42434</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="2">
         <v>14602679</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4045,10 +4041,10 @@
       <c r="A331" s="1">
         <v>42431</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="2">
         <v>25769222</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331" s="3">
         <v>291.39999999999998</v>
       </c>
     </row>
@@ -4056,10 +4052,10 @@
       <c r="A332" s="1">
         <v>42427</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="2">
         <v>25103142</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332" s="3">
         <v>266</v>
       </c>
     </row>
@@ -4067,10 +4063,10 @@
       <c r="A333" s="1">
         <v>42424</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="2">
         <v>22622798</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333" s="3">
         <v>236</v>
       </c>
     </row>
@@ -4078,10 +4074,10 @@
       <c r="A334" s="1">
         <v>42420</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="2">
         <v>22865693</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334" s="3">
         <v>212</v>
       </c>
     </row>
@@ -4089,10 +4085,10 @@
       <c r="A335" s="1">
         <v>42417</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="2">
         <v>18875392</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335" s="3">
         <v>189</v>
       </c>
     </row>
@@ -4100,10 +4096,10 @@
       <c r="A336" s="1">
         <v>42413</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="2">
         <v>20039775</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336" s="3">
         <v>171</v>
       </c>
     </row>
@@ -4111,10 +4107,10 @@
       <c r="A337" s="1">
         <v>42410</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="2">
         <v>18273810</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337" s="3">
         <v>157</v>
       </c>
     </row>
@@ -4122,10 +4118,10 @@
       <c r="A338" s="1">
         <v>42406</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="2">
         <v>19441320</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338" s="3">
         <v>136</v>
       </c>
     </row>
@@ -4133,10 +4129,10 @@
       <c r="A339" s="1">
         <v>42403</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="2">
         <v>17756022</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339" s="3">
         <v>112</v>
       </c>
     </row>
@@ -4144,10 +4140,10 @@
       <c r="A340" s="1">
         <v>42399</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="2">
         <v>17969814</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340" s="3">
         <v>96</v>
       </c>
     </row>
@@ -4155,10 +4151,10 @@
       <c r="A341" s="1">
         <v>42396</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="2">
         <v>16016673</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341" s="3">
         <v>75</v>
       </c>
     </row>
@@ -4166,10 +4162,10 @@
       <c r="A342" s="1">
         <v>42392</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="2">
         <v>16718548</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4177,10 +4173,10 @@
       <c r="A343" s="1">
         <v>42389</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="2">
         <v>17922712</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343" s="3">
         <v>50</v>
       </c>
     </row>
@@ -4188,10 +4184,10 @@
       <c r="A344" s="1">
         <v>42385</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="2">
         <v>24242156</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4199,10 +4195,10 @@
       <c r="A345" s="1">
         <v>42382</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345" s="2">
         <v>635103137</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345" s="3">
         <v>1580</v>
       </c>
     </row>
@@ -4210,10 +4206,10 @@
       <c r="A346" s="1">
         <v>42378</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="2">
         <v>440321172</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346" s="3">
         <v>947.9</v>
       </c>
     </row>
@@ -4221,10 +4217,10 @@
       <c r="A347" s="1">
         <v>42375</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="2">
         <v>176143630</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347" s="3">
         <v>528.5</v>
       </c>
     </row>
@@ -4232,10 +4228,10 @@
       <c r="A348" s="1">
         <v>42371</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348" s="2">
         <v>54128602</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348" s="3">
         <v>334</v>
       </c>
     </row>
@@ -4243,10 +4239,10 @@
       <c r="A349" s="1">
         <v>42368</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="2">
         <v>40928656</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349" s="3">
         <v>300</v>
       </c>
     </row>
@@ -4254,10 +4250,10 @@
       <c r="A350" s="1">
         <v>42364</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="2">
         <v>26048662</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350" s="3">
         <v>255</v>
       </c>
     </row>
@@ -4265,10 +4261,10 @@
       <c r="A351" s="1">
         <v>42361</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="2">
         <v>27159629</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351" s="3">
         <v>227</v>
       </c>
     </row>
@@ -4276,10 +4272,10 @@
       <c r="A352" s="1">
         <v>42357</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="2">
         <v>23397197</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352" s="3">
         <v>202</v>
       </c>
     </row>
@@ -4287,10 +4283,10 @@
       <c r="A353" s="1">
         <v>42354</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="2">
         <v>18478518</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353" s="3">
         <v>180</v>
       </c>
     </row>
@@ -4298,10 +4294,10 @@
       <c r="A354" s="1">
         <v>42350</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="2">
         <v>18331270</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354" s="3">
         <v>164</v>
       </c>
     </row>
@@ -4309,10 +4305,10 @@
       <c r="A355" s="1">
         <v>42347</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="2">
         <v>16311081</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355" s="3">
         <v>145</v>
       </c>
     </row>
@@ -4320,10 +4316,10 @@
       <c r="A356" s="1">
         <v>42343</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="2">
         <v>16347011</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356" s="3">
         <v>127</v>
       </c>
     </row>
@@ -4331,10 +4327,10 @@
       <c r="A357" s="1">
         <v>42340</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="2">
         <v>14393507</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357" s="3">
         <v>110</v>
       </c>
     </row>
@@ -4342,10 +4338,10 @@
       <c r="A358" s="1">
         <v>42336</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="2">
         <v>13485578</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358" s="3">
         <v>100</v>
       </c>
     </row>
@@ -4353,10 +4349,10 @@
       <c r="A359" s="1">
         <v>42333</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="2">
         <v>13043517</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359" s="3">
         <v>90</v>
       </c>
     </row>
@@ -4364,10 +4360,10 @@
       <c r="A360" s="1">
         <v>42329</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="2">
         <v>12548762</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360" s="3">
         <v>80</v>
       </c>
     </row>
@@ -4375,10 +4371,10 @@
       <c r="A361" s="1">
         <v>42326</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="2">
         <v>11037922</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4386,10 +4382,10 @@
       <c r="A362" s="1">
         <v>42322</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="2">
         <v>12115901</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4397,10 +4393,10 @@
       <c r="A363" s="1">
         <v>42319</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363" s="2">
         <v>10412708</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363" s="3">
         <v>50</v>
       </c>
     </row>
@@ -4408,10 +4404,10 @@
       <c r="A364" s="1">
         <v>42315</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="2">
         <v>11950141</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4419,10 +4415,10 @@
       <c r="A365" s="1">
         <v>42312</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="2">
         <v>16162381</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365" s="3">
         <v>142</v>
       </c>
     </row>
@@ -4430,10 +4426,10 @@
       <c r="A366" s="1">
         <v>42308</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="2">
         <v>16375707</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366" s="3">
         <v>127</v>
       </c>
     </row>
@@ -4441,10 +4437,10 @@
       <c r="A367" s="1">
         <v>42305</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="2">
         <v>13971088</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367" s="3">
         <v>110</v>
       </c>
     </row>
@@ -4452,10 +4448,10 @@
       <c r="A368" s="1">
         <v>42301</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="2">
         <v>15135163</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368" s="3">
         <v>100</v>
       </c>
     </row>
@@ -4463,10 +4459,10 @@
       <c r="A369" s="1">
         <v>42298</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="2">
         <v>12447514</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369" s="3">
         <v>90</v>
       </c>
     </row>
@@ -4474,10 +4470,10 @@
       <c r="A370" s="1">
         <v>42294</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="2">
         <v>13127663</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370" s="3">
         <v>80</v>
       </c>
     </row>
@@ -4485,10 +4481,10 @@
       <c r="A371" s="1">
         <v>42291</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="2">
         <v>11609552</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4496,10 +4492,10 @@
       <c r="A372" s="1">
         <v>42287</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="2">
         <v>12299521</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4507,10 +4503,10 @@
       <c r="A373" s="1">
         <v>42284</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="2">
         <v>10575956</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373" s="3">
         <v>50</v>
       </c>
     </row>
@@ -4518,10 +4514,10 @@
       <c r="A374" s="1">
         <v>42280</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="2">
         <v>12446512</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4529,10 +4525,10 @@
       <c r="A375" s="1">
         <v>42277</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375" s="2">
         <v>49892450</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375" s="3">
         <v>310.5</v>
       </c>
     </row>
@@ -4540,10 +4536,10 @@
       <c r="A376" s="1">
         <v>42273</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="2">
         <v>32078059</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376" s="3">
         <v>267</v>
       </c>
     </row>
@@ -4551,10 +4547,10 @@
       <c r="A377" s="1">
         <v>42270</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377" s="2">
         <v>28627080</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377" s="3">
         <v>235</v>
       </c>
     </row>
@@ -4562,10 +4558,10 @@
       <c r="A378" s="1">
         <v>42266</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378" s="2">
         <v>25341001</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378" s="3">
         <v>208</v>
       </c>
     </row>
@@ -4573,10 +4569,10 @@
       <c r="A379" s="1">
         <v>42263</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379" s="2">
         <v>20263813</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379" s="3">
         <v>185</v>
       </c>
     </row>
@@ -4584,10 +4580,10 @@
       <c r="A380" s="1">
         <v>42259</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380" s="2">
         <v>19085819</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380" s="3">
         <v>167</v>
       </c>
     </row>
@@ -4595,10 +4591,10 @@
       <c r="A381" s="1">
         <v>42256</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381" s="2">
         <v>16247334</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381" s="3">
         <v>149</v>
       </c>
     </row>
@@ -4606,10 +4602,10 @@
       <c r="A382" s="1">
         <v>42252</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382" s="2">
         <v>17282243</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382" s="3">
         <v>133</v>
       </c>
     </row>
@@ -4617,10 +4613,10 @@
       <c r="A383" s="1">
         <v>42249</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383" s="2">
         <v>15369214</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383" s="3">
         <v>120</v>
       </c>
     </row>
@@ -4628,10 +4624,10 @@
       <c r="A384" s="1">
         <v>42245</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384" s="2">
         <v>15767859</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384" s="3">
         <v>110</v>
       </c>
     </row>
@@ -4639,10 +4635,10 @@
       <c r="A385" s="1">
         <v>42242</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385" s="2">
         <v>14313691</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385" s="3">
         <v>100</v>
       </c>
     </row>
@@ -4650,10 +4646,10 @@
       <c r="A386" s="1">
         <v>42238</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386" s="2">
         <v>13566294</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386" s="3">
         <v>90</v>
       </c>
     </row>
@@ -4661,10 +4657,10 @@
       <c r="A387" s="1">
         <v>42235</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387" s="2">
         <v>11871417</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387" s="3">
         <v>80</v>
       </c>
     </row>
@@ -4672,10 +4668,10 @@
       <c r="A388" s="1">
         <v>42231</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388" s="2">
         <v>12721410</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4683,10 +4679,10 @@
       <c r="A389" s="1">
         <v>42228</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389" s="2">
         <v>11116078</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4694,10 +4690,10 @@
       <c r="A390" s="1">
         <v>42224</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390" s="2">
         <v>11844767</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390" s="3">
         <v>50</v>
       </c>
     </row>
@@ -4705,10 +4701,10 @@
       <c r="A391" s="1">
         <v>42221</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391" s="2">
         <v>10529100</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4716,10 +4712,10 @@
       <c r="A392" s="1">
         <v>42217</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392" s="2">
         <v>15950761</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392" s="3">
         <v>110</v>
       </c>
     </row>
@@ -4727,10 +4723,10 @@
       <c r="A393" s="1">
         <v>42214</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393" s="2">
         <v>14035061</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393" s="3">
         <v>100</v>
       </c>
     </row>
@@ -4738,10 +4734,10 @@
       <c r="A394" s="1">
         <v>42210</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394" s="2">
         <v>13179129</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394" s="3">
         <v>90</v>
       </c>
     </row>
@@ -4749,10 +4745,10 @@
       <c r="A395" s="1">
         <v>42207</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395" s="2">
         <v>11233613</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395" s="3">
         <v>80</v>
       </c>
     </row>
@@ -4760,10 +4756,10 @@
       <c r="A396" s="1">
         <v>42203</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396" s="2">
         <v>12032160</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4771,10 +4767,10 @@
       <c r="A397" s="1">
         <v>42200</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397" s="2">
         <v>10621641</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4782,10 +4778,10 @@
       <c r="A398" s="1">
         <v>42196</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398" s="2">
         <v>11568109</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398" s="3">
         <v>50</v>
       </c>
     </row>
@@ -4793,10 +4789,10 @@
       <c r="A399" s="1">
         <v>42193</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399" s="2">
         <v>10283048</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4804,10 +4800,10 @@
       <c r="A400" s="1">
         <v>42189</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="2">
         <v>12236284</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4815,10 +4811,10 @@
       <c r="A401" s="1">
         <v>42186</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="2">
         <v>10987919</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4826,10 +4822,10 @@
       <c r="A402" s="1">
         <v>42182</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402" s="2">
         <v>11750196</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402" s="3">
         <v>50</v>
       </c>
     </row>
@@ -4837,10 +4833,10 @@
       <c r="A403" s="1">
         <v>42179</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403" s="2">
         <v>10430158</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4848,10 +4844,10 @@
       <c r="A404" s="1">
         <v>42175</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404" s="2">
         <v>13371246</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404" s="3">
         <v>80</v>
       </c>
     </row>
@@ -4859,10 +4855,10 @@
       <c r="A405" s="1">
         <v>42172</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405" s="2">
         <v>11771172</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4870,10 +4866,10 @@
       <c r="A406" s="1">
         <v>42168</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406" s="2">
         <v>12602085</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4881,10 +4877,10 @@
       <c r="A407" s="1">
         <v>42165</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407" s="2">
         <v>11196995</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407" s="3">
         <v>50</v>
       </c>
     </row>
@@ -4892,10 +4888,10 @@
       <c r="A408" s="1">
         <v>42161</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408" s="2">
         <v>12547408</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4903,10 +4899,10 @@
       <c r="A409" s="1">
         <v>42158</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409" s="2">
         <v>19928018</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409" s="3">
         <v>188</v>
       </c>
     </row>
@@ -4914,10 +4910,10 @@
       <c r="A410" s="1">
         <v>42154</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410" s="2">
         <v>19585300</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410" s="3">
         <v>171</v>
       </c>
     </row>
@@ -4925,10 +4921,10 @@
       <c r="A411" s="1">
         <v>42151</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411" s="2">
         <v>16542083</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411" s="3">
         <v>154</v>
       </c>
     </row>
@@ -4936,10 +4932,10 @@
       <c r="A412" s="1">
         <v>42147</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412" s="2">
         <v>17583473</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412" s="3">
         <v>138</v>
       </c>
     </row>
@@ -4947,10 +4943,10 @@
       <c r="A413" s="1">
         <v>42144</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413" s="2">
         <v>15298914</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413" s="3">
         <v>121</v>
       </c>
     </row>
@@ -4958,10 +4954,10 @@
       <c r="A414" s="1">
         <v>42140</v>
       </c>
-      <c r="B414" s="3">
+      <c r="B414" s="2">
         <v>15746389</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414" s="3">
         <v>110</v>
       </c>
     </row>
@@ -4969,10 +4965,10 @@
       <c r="A415" s="1">
         <v>42137</v>
       </c>
-      <c r="B415" s="3">
+      <c r="B415" s="2">
         <v>13951918</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415" s="3">
         <v>100</v>
       </c>
     </row>
@@ -4980,10 +4976,10 @@
       <c r="A416" s="1">
         <v>42133</v>
       </c>
-      <c r="B416" s="3">
+      <c r="B416" s="2">
         <v>13791741</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416" s="3">
         <v>90</v>
       </c>
     </row>
@@ -4991,10 +4987,10 @@
       <c r="A417" s="1">
         <v>42130</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417" s="2">
         <v>12160116</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5002,10 +4998,10 @@
       <c r="A418" s="1">
         <v>42126</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418" s="2">
         <v>13288775</v>
       </c>
-      <c r="C418" s="4">
+      <c r="C418" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5013,10 +5009,10 @@
       <c r="A419" s="1">
         <v>42123</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419" s="2">
         <v>11282520</v>
       </c>
-      <c r="C419" s="4">
+      <c r="C419" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5024,10 +5020,10 @@
       <c r="A420" s="1">
         <v>42119</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420" s="2">
         <v>12322402</v>
       </c>
-      <c r="C420" s="4">
+      <c r="C420" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5035,10 +5031,10 @@
       <c r="A421" s="1">
         <v>42116</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421" s="2">
         <v>10840277</v>
       </c>
-      <c r="C421" s="4">
+      <c r="C421" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5046,10 +5042,10 @@
       <c r="A422" s="1">
         <v>42112</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422" s="2">
         <v>12626737</v>
       </c>
-      <c r="C422" s="4">
+      <c r="C422" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5057,10 +5053,10 @@
       <c r="A423" s="1">
         <v>42109</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423" s="2">
         <v>11236744</v>
       </c>
-      <c r="C423" s="4">
+      <c r="C423" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5068,10 +5064,10 @@
       <c r="A424" s="1">
         <v>42105</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424" s="2">
         <v>14393847</v>
       </c>
-      <c r="C424" s="4">
+      <c r="C424" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5079,10 +5075,10 @@
       <c r="A425" s="1">
         <v>42102</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425" s="2">
         <v>12773508</v>
       </c>
-      <c r="C425" s="4">
+      <c r="C425" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5090,10 +5086,10 @@
       <c r="A426" s="1">
         <v>42098</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426" s="2">
         <v>14012710</v>
       </c>
-      <c r="C426" s="4">
+      <c r="C426" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5101,10 +5097,10 @@
       <c r="A427" s="1">
         <v>42095</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427" s="2">
         <v>12251700</v>
       </c>
-      <c r="C427" s="4">
+      <c r="C427" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5112,10 +5108,10 @@
       <c r="A428" s="1">
         <v>42091</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428" s="2">
         <v>12870492</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5123,10 +5119,10 @@
       <c r="A429" s="1">
         <v>42088</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429" s="2">
         <v>11479151</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5134,10 +5130,10 @@
       <c r="A430" s="1">
         <v>42084</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430" s="2">
         <v>13368360</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5145,10 +5141,10 @@
       <c r="A431" s="1">
         <v>42081</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431" s="2">
         <v>12187191</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5156,10 +5152,10 @@
       <c r="A432" s="1">
         <v>42077</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432" s="2">
         <v>19601802</v>
       </c>
-      <c r="C432" s="4">
+      <c r="C432" s="3">
         <v>137</v>
       </c>
     </row>
@@ -5167,10 +5163,10 @@
       <c r="A433" s="1">
         <v>42074</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433" s="2">
         <v>17288254</v>
       </c>
-      <c r="C433" s="4">
+      <c r="C433" s="3">
         <v>119</v>
       </c>
     </row>
@@ -5178,10 +5174,10 @@
       <c r="A434" s="1">
         <v>42070</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434" s="2">
         <v>17732008</v>
       </c>
-      <c r="C434" s="4">
+      <c r="C434" s="3">
         <v>100</v>
       </c>
     </row>
@@ -5189,10 +5185,10 @@
       <c r="A435" s="1">
         <v>42067</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435" s="2">
         <v>15069326</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C435" s="3">
         <v>90</v>
       </c>
     </row>
@@ -5200,10 +5196,10 @@
       <c r="A436" s="1">
         <v>42063</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436" s="2">
         <v>14984034</v>
       </c>
-      <c r="C436" s="4">
+      <c r="C436" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5211,10 +5207,10 @@
       <c r="A437" s="1">
         <v>42060</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437" s="2">
         <v>13350950</v>
       </c>
-      <c r="C437" s="4">
+      <c r="C437" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5222,10 +5218,10 @@
       <c r="A438" s="1">
         <v>42056</v>
       </c>
-      <c r="B438" s="3">
+      <c r="B438" s="2">
         <v>13882374</v>
       </c>
-      <c r="C438" s="4">
+      <c r="C438" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5233,10 +5229,10 @@
       <c r="A439" s="1">
         <v>42053</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439" s="2">
         <v>12375218</v>
       </c>
-      <c r="C439" s="4">
+      <c r="C439" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5244,10 +5240,10 @@
       <c r="A440" s="1">
         <v>42049</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440" s="2">
         <v>14505807</v>
       </c>
-      <c r="C440" s="4">
+      <c r="C440" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5255,10 +5251,10 @@
       <c r="A441" s="1">
         <v>42046</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B441" s="2">
         <v>189525246</v>
       </c>
-      <c r="C441" s="4">
+      <c r="C441" s="3">
         <v>564.1</v>
       </c>
     </row>
@@ -5266,10 +5262,10 @@
       <c r="A442" s="1">
         <v>42042</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442" s="2">
         <v>73133684</v>
       </c>
-      <c r="C442" s="4">
+      <c r="C442" s="3">
         <v>394.5</v>
       </c>
     </row>
@@ -5277,10 +5273,10 @@
       <c r="A443" s="1">
         <v>42039</v>
       </c>
-      <c r="B443" s="3">
+      <c r="B443" s="2">
         <v>48380005</v>
       </c>
-      <c r="C443" s="4">
+      <c r="C443" s="3">
         <v>317</v>
       </c>
     </row>
@@ -5288,10 +5284,10 @@
       <c r="A444" s="1">
         <v>42035</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444" s="2">
         <v>36642648</v>
       </c>
-      <c r="C444" s="4">
+      <c r="C444" s="3">
         <v>289</v>
       </c>
     </row>
@@ -5299,10 +5295,10 @@
       <c r="A445" s="1">
         <v>42032</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445" s="2">
         <v>28986142</v>
       </c>
-      <c r="C445" s="4">
+      <c r="C445" s="3">
         <v>261</v>
       </c>
     </row>
@@ -5310,10 +5306,10 @@
       <c r="A446" s="1">
         <v>42028</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446" s="2">
         <v>27706330</v>
       </c>
-      <c r="C446" s="4">
+      <c r="C446" s="3">
         <v>230</v>
       </c>
     </row>
@@ -5321,10 +5317,10 @@
       <c r="A447" s="1">
         <v>42025</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447" s="2">
         <v>23737012</v>
       </c>
-      <c r="C447" s="4">
+      <c r="C447" s="3">
         <v>208</v>
       </c>
     </row>
@@ -5332,10 +5328,10 @@
       <c r="A448" s="1">
         <v>42021</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448" s="2">
         <v>21495368</v>
       </c>
-      <c r="C448" s="4">
+      <c r="C448" s="3">
         <v>194</v>
       </c>
     </row>
@@ -5343,10 +5339,10 @@
       <c r="A449" s="1">
         <v>42018</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B449" s="2">
         <v>18120895</v>
       </c>
-      <c r="C449" s="4">
+      <c r="C449" s="3">
         <v>176</v>
       </c>
     </row>
@@ -5354,10 +5350,10 @@
       <c r="A450" s="1">
         <v>42014</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B450" s="2">
         <v>18201593</v>
       </c>
-      <c r="C450" s="4">
+      <c r="C450" s="3">
         <v>162</v>
       </c>
     </row>
@@ -5365,10 +5361,10 @@
       <c r="A451" s="1">
         <v>42011</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B451" s="2">
         <v>16048021</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451" s="3">
         <v>146</v>
       </c>
     </row>
@@ -5376,10 +5372,10 @@
       <c r="A452" s="1">
         <v>42007</v>
       </c>
-      <c r="B452" s="3">
+      <c r="B452" s="2">
         <v>16012307</v>
       </c>
-      <c r="C452" s="4">
+      <c r="C452" s="3">
         <v>131</v>
       </c>
     </row>
@@ -5387,10 +5383,10 @@
       <c r="A453" s="1">
         <v>42004</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B453" s="2">
         <v>17571695</v>
       </c>
-      <c r="C453" s="4">
+      <c r="C453" s="3">
         <v>120</v>
       </c>
     </row>
@@ -5398,10 +5394,10 @@
       <c r="A454" s="1">
         <v>42000</v>
       </c>
-      <c r="B454" s="3">
+      <c r="B454" s="2">
         <v>14046942</v>
       </c>
-      <c r="C454" s="4">
+      <c r="C454" s="3">
         <v>110</v>
       </c>
     </row>
@@ -5409,10 +5405,10 @@
       <c r="A455" s="1">
         <v>41997</v>
       </c>
-      <c r="B455" s="3">
+      <c r="B455" s="2">
         <v>16940413</v>
       </c>
-      <c r="C455" s="4">
+      <c r="C455" s="3">
         <v>100</v>
       </c>
     </row>
@@ -5420,10 +5416,10 @@
       <c r="A456" s="1">
         <v>41993</v>
       </c>
-      <c r="B456" s="3">
+      <c r="B456" s="2">
         <v>13414715</v>
       </c>
-      <c r="C456" s="4">
+      <c r="C456" s="3">
         <v>90</v>
       </c>
     </row>
@@ -5431,10 +5427,10 @@
       <c r="A457" s="1">
         <v>41990</v>
       </c>
-      <c r="B457" s="3">
+      <c r="B457" s="2">
         <v>11662912</v>
       </c>
-      <c r="C457" s="4">
+      <c r="C457" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5442,10 +5438,10 @@
       <c r="A458" s="1">
         <v>41986</v>
       </c>
-      <c r="B458" s="3">
+      <c r="B458" s="2">
         <v>12728976</v>
       </c>
-      <c r="C458" s="4">
+      <c r="C458" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5453,10 +5449,10 @@
       <c r="A459" s="1">
         <v>41983</v>
       </c>
-      <c r="B459" s="3">
+      <c r="B459" s="2">
         <v>10970186</v>
       </c>
-      <c r="C459" s="4">
+      <c r="C459" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5464,10 +5460,10 @@
       <c r="A460" s="1">
         <v>41979</v>
       </c>
-      <c r="B460" s="3">
+      <c r="B460" s="2">
         <v>11913125</v>
       </c>
-      <c r="C460" s="4">
+      <c r="C460" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5475,10 +5471,10 @@
       <c r="A461" s="1">
         <v>41976</v>
       </c>
-      <c r="B461" s="3">
+      <c r="B461" s="2">
         <v>10594658</v>
       </c>
-      <c r="C461" s="4">
+      <c r="C461" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5486,10 +5482,10 @@
       <c r="A462" s="1">
         <v>41972</v>
       </c>
-      <c r="B462" s="3">
+      <c r="B462" s="2">
         <v>12785563</v>
       </c>
-      <c r="C462" s="4">
+      <c r="C462" s="3">
         <v>90</v>
       </c>
     </row>
@@ -5497,10 +5493,10 @@
       <c r="A463" s="1">
         <v>41969</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463" s="2">
         <v>12798541</v>
       </c>
-      <c r="C463" s="4">
+      <c r="C463" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5508,10 +5504,10 @@
       <c r="A464" s="1">
         <v>41965</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464" s="2">
         <v>13115343</v>
       </c>
-      <c r="C464" s="4">
+      <c r="C464" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5519,10 +5515,10 @@
       <c r="A465" s="1">
         <v>41962</v>
       </c>
-      <c r="B465" s="3">
+      <c r="B465" s="2">
         <v>11311525</v>
       </c>
-      <c r="C465" s="4">
+      <c r="C465" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5530,10 +5526,10 @@
       <c r="A466" s="1">
         <v>41958</v>
       </c>
-      <c r="B466" s="3">
+      <c r="B466" s="2">
         <v>12614886</v>
       </c>
-      <c r="C466" s="4">
+      <c r="C466" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5541,10 +5537,10 @@
       <c r="A467" s="1">
         <v>41955</v>
       </c>
-      <c r="B467" s="3">
+      <c r="B467" s="2">
         <v>11311072</v>
       </c>
-      <c r="C467" s="4">
+      <c r="C467" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5552,10 +5548,10 @@
       <c r="A468" s="1">
         <v>41951</v>
       </c>
-      <c r="B468" s="3">
+      <c r="B468" s="2">
         <v>23930435</v>
       </c>
-      <c r="C468" s="4">
+      <c r="C468" s="3">
         <v>203</v>
       </c>
     </row>
@@ -5563,10 +5559,10 @@
       <c r="A469" s="1">
         <v>41948</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469" s="2">
         <v>20093479</v>
       </c>
-      <c r="C469" s="4">
+      <c r="C469" s="3">
         <v>178</v>
       </c>
     </row>
@@ -5574,10 +5570,10 @@
       <c r="A470" s="1">
         <v>41944</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470" s="2">
         <v>19155112</v>
       </c>
-      <c r="C470" s="4">
+      <c r="C470" s="3">
         <v>159</v>
       </c>
     </row>
@@ -5585,10 +5581,10 @@
       <c r="A471" s="1">
         <v>41941</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B471" s="2">
         <v>16819403</v>
       </c>
-      <c r="C471" s="4">
+      <c r="C471" s="3">
         <v>142</v>
       </c>
     </row>
@@ -5596,10 +5592,10 @@
       <c r="A472" s="1">
         <v>41937</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B472" s="2">
         <v>17160480</v>
       </c>
-      <c r="C472" s="4">
+      <c r="C472" s="3">
         <v>125</v>
       </c>
     </row>
@@ -5607,10 +5603,10 @@
       <c r="A473" s="1">
         <v>41934</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B473" s="2">
         <v>15213249</v>
       </c>
-      <c r="C473" s="4">
+      <c r="C473" s="3">
         <v>110</v>
       </c>
     </row>
@@ -5618,10 +5614,10 @@
       <c r="A474" s="1">
         <v>41930</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B474" s="2">
         <v>15815395</v>
       </c>
-      <c r="C474" s="4">
+      <c r="C474" s="3">
         <v>100</v>
       </c>
     </row>
@@ -5629,10 +5625,10 @@
       <c r="A475" s="1">
         <v>41927</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475" s="2">
         <v>12470347</v>
       </c>
-      <c r="C475" s="4">
+      <c r="C475" s="3">
         <v>90</v>
       </c>
     </row>
@@ -5640,10 +5636,10 @@
       <c r="A476" s="1">
         <v>41923</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476" s="2">
         <v>13347259</v>
       </c>
-      <c r="C476" s="4">
+      <c r="C476" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5651,10 +5647,10 @@
       <c r="A477" s="1">
         <v>41920</v>
       </c>
-      <c r="B477" s="3">
+      <c r="B477" s="2">
         <v>11876086</v>
       </c>
-      <c r="C477" s="4">
+      <c r="C477" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5662,10 +5658,10 @@
       <c r="A478" s="1">
         <v>41916</v>
       </c>
-      <c r="B478" s="3">
+      <c r="B478" s="2">
         <v>12949459</v>
       </c>
-      <c r="C478" s="4">
+      <c r="C478" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5673,10 +5669,10 @@
       <c r="A479" s="1">
         <v>41913</v>
       </c>
-      <c r="B479" s="3">
+      <c r="B479" s="2">
         <v>11576059</v>
       </c>
-      <c r="C479" s="4">
+      <c r="C479" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5684,10 +5680,10 @@
       <c r="A480" s="1">
         <v>41909</v>
       </c>
-      <c r="B480" s="3">
+      <c r="B480" s="2">
         <v>12650314</v>
       </c>
-      <c r="C480" s="4">
+      <c r="C480" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5695,10 +5691,10 @@
       <c r="A481" s="1">
         <v>41906</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481" s="2">
         <v>30037318</v>
       </c>
-      <c r="C481" s="4">
+      <c r="C481" s="3">
         <v>225</v>
       </c>
     </row>
@@ -5706,10 +5702,10 @@
       <c r="A482" s="1">
         <v>41902</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482" s="2">
         <v>25254584</v>
       </c>
-      <c r="C482" s="4">
+      <c r="C482" s="3">
         <v>196</v>
       </c>
     </row>
@@ -5717,10 +5713,10 @@
       <c r="A483" s="1">
         <v>41899</v>
       </c>
-      <c r="B483" s="3">
+      <c r="B483" s="2">
         <v>21035274</v>
       </c>
-      <c r="C483" s="4">
+      <c r="C483" s="3">
         <v>171</v>
       </c>
     </row>
@@ -5728,10 +5724,10 @@
       <c r="A484" s="1">
         <v>41895</v>
       </c>
-      <c r="B484" s="3">
+      <c r="B484" s="2">
         <v>19944525</v>
       </c>
-      <c r="C484" s="4">
+      <c r="C484" s="3">
         <v>149</v>
       </c>
     </row>
@@ -5739,10 +5735,10 @@
       <c r="A485" s="1">
         <v>41892</v>
       </c>
-      <c r="B485" s="3">
+      <c r="B485" s="2">
         <v>17477359</v>
       </c>
-      <c r="C485" s="4">
+      <c r="C485" s="3">
         <v>127</v>
       </c>
     </row>
@@ -5750,10 +5746,10 @@
       <c r="A486" s="1">
         <v>41888</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B486" s="2">
         <v>17463572</v>
       </c>
-      <c r="C486" s="4">
+      <c r="C486" s="3">
         <v>110</v>
       </c>
     </row>
@@ -5761,10 +5757,10 @@
       <c r="A487" s="1">
         <v>41885</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B487" s="2">
         <v>15356358</v>
       </c>
-      <c r="C487" s="4">
+      <c r="C487" s="3">
         <v>100</v>
       </c>
     </row>
@@ -5772,10 +5768,10 @@
       <c r="A488" s="1">
         <v>41881</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B488" s="2">
         <v>14423727</v>
       </c>
-      <c r="C488" s="4">
+      <c r="C488" s="3">
         <v>90</v>
       </c>
     </row>
@@ -5783,10 +5779,10 @@
       <c r="A489" s="1">
         <v>41878</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B489" s="2">
         <v>12194186</v>
       </c>
-      <c r="C489" s="4">
+      <c r="C489" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5794,10 +5790,10 @@
       <c r="A490" s="1">
         <v>41874</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B490" s="2">
         <v>12655777</v>
       </c>
-      <c r="C490" s="4">
+      <c r="C490" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5805,10 +5801,10 @@
       <c r="A491" s="1">
         <v>41871</v>
       </c>
-      <c r="B491" s="3">
+      <c r="B491" s="2">
         <v>10970284</v>
       </c>
-      <c r="C491" s="4">
+      <c r="C491" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5816,10 +5812,10 @@
       <c r="A492" s="1">
         <v>41867</v>
       </c>
-      <c r="B492" s="3">
+      <c r="B492" s="2">
         <v>12071789</v>
       </c>
-      <c r="C492" s="4">
+      <c r="C492" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5827,10 +5823,10 @@
       <c r="A493" s="1">
         <v>41864</v>
       </c>
-      <c r="B493" s="3">
+      <c r="B493" s="2">
         <v>10604871</v>
       </c>
-      <c r="C493" s="4">
+      <c r="C493" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5838,10 +5834,10 @@
       <c r="A494" s="1">
         <v>41860</v>
       </c>
-      <c r="B494" s="3">
+      <c r="B494" s="2">
         <v>14268477</v>
       </c>
-      <c r="C494" s="4">
+      <c r="C494" s="3">
         <v>90</v>
       </c>
     </row>
@@ -5849,10 +5845,10 @@
       <c r="A495" s="1">
         <v>41857</v>
       </c>
-      <c r="B495" s="3">
+      <c r="B495" s="2">
         <v>12736046</v>
       </c>
-      <c r="C495" s="4">
+      <c r="C495" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5860,10 +5856,10 @@
       <c r="A496" s="1">
         <v>41853</v>
       </c>
-      <c r="B496" s="3">
+      <c r="B496" s="2">
         <v>13686525</v>
       </c>
-      <c r="C496" s="4">
+      <c r="C496" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5871,10 +5867,10 @@
       <c r="A497" s="1">
         <v>41850</v>
       </c>
-      <c r="B497" s="3">
+      <c r="B497" s="2">
         <v>11469502</v>
       </c>
-      <c r="C497" s="4">
+      <c r="C497" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5882,10 +5878,10 @@
       <c r="A498" s="1">
         <v>41846</v>
       </c>
-      <c r="B498" s="3">
+      <c r="B498" s="2">
         <v>12465267</v>
       </c>
-      <c r="C498" s="4">
+      <c r="C498" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5893,10 +5889,10 @@
       <c r="A499" s="1">
         <v>41843</v>
       </c>
-      <c r="B499" s="3">
+      <c r="B499" s="2">
         <v>10913114</v>
       </c>
-      <c r="C499" s="4">
+      <c r="C499" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5904,10 +5900,10 @@
       <c r="A500" s="1">
         <v>41839</v>
       </c>
-      <c r="B500" s="3">
+      <c r="B500" s="2">
         <v>13338105</v>
       </c>
-      <c r="C500" s="4">
+      <c r="C500" s="3">
         <v>60</v>
       </c>
     </row>
@@ -5915,10 +5911,10 @@
       <c r="A501" s="1">
         <v>41836</v>
       </c>
-      <c r="B501" s="3">
+      <c r="B501" s="2">
         <v>11810733</v>
       </c>
-      <c r="C501" s="4">
+      <c r="C501" s="3">
         <v>50</v>
       </c>
     </row>
@@ -5926,10 +5922,10 @@
       <c r="A502" s="1">
         <v>41832</v>
       </c>
-      <c r="B502" s="3">
+      <c r="B502" s="2">
         <v>12735954</v>
       </c>
-      <c r="C502" s="4">
+      <c r="C502" s="3">
         <v>40</v>
       </c>
     </row>
@@ -5937,10 +5933,10 @@
       <c r="A503" s="1">
         <v>41829</v>
       </c>
-      <c r="B503" s="3">
+      <c r="B503" s="2">
         <v>17572074</v>
       </c>
-      <c r="C503" s="4">
+      <c r="C503" s="3">
         <v>122</v>
       </c>
     </row>
@@ -5948,10 +5944,10 @@
       <c r="A504" s="1">
         <v>41825</v>
       </c>
-      <c r="B504" s="3">
+      <c r="B504" s="2">
         <v>16739701</v>
       </c>
-      <c r="C504" s="4">
+      <c r="C504" s="3">
         <v>101</v>
       </c>
     </row>
@@ -5959,10 +5955,10 @@
       <c r="A505" s="1">
         <v>41822</v>
       </c>
-      <c r="B505" s="3">
+      <c r="B505" s="2">
         <v>14203717</v>
       </c>
-      <c r="C505" s="4">
+      <c r="C505" s="3">
         <v>90</v>
       </c>
     </row>
@@ -5970,10 +5966,10 @@
       <c r="A506" s="1">
         <v>41818</v>
       </c>
-      <c r="B506" s="3">
+      <c r="B506" s="2">
         <v>14325992</v>
       </c>
-      <c r="C506" s="4">
+      <c r="C506" s="3">
         <v>80</v>
       </c>
     </row>
@@ -5981,10 +5977,10 @@
       <c r="A507" s="1">
         <v>41815</v>
       </c>
-      <c r="B507" s="3">
+      <c r="B507" s="2">
         <v>12780588</v>
       </c>
-      <c r="C507" s="4">
+      <c r="C507" s="3">
         <v>70</v>
       </c>
     </row>
@@ -5992,10 +5988,10 @@
       <c r="A508" s="1">
         <v>41811</v>
       </c>
-      <c r="B508" s="3">
+      <c r="B508" s="2">
         <v>13505151</v>
       </c>
-      <c r="C508" s="4">
+      <c r="C508" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6003,10 +5999,10 @@
       <c r="A509" s="1">
         <v>41808</v>
       </c>
-      <c r="B509" s="3">
+      <c r="B509" s="2">
         <v>11942236</v>
       </c>
-      <c r="C509" s="4">
+      <c r="C509" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6014,10 +6010,10 @@
       <c r="A510" s="1">
         <v>41804</v>
       </c>
-      <c r="B510" s="3">
+      <c r="B510" s="2">
         <v>13568008</v>
       </c>
-      <c r="C510" s="4">
+      <c r="C510" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6025,10 +6021,10 @@
       <c r="A511" s="1">
         <v>41801</v>
       </c>
-      <c r="B511" s="3">
+      <c r="B511" s="2">
         <v>32643579</v>
       </c>
-      <c r="C511" s="4">
+      <c r="C511" s="3">
         <v>257</v>
       </c>
     </row>
@@ -6036,10 +6032,10 @@
       <c r="A512" s="1">
         <v>41797</v>
       </c>
-      <c r="B512" s="3">
+      <c r="B512" s="2">
         <v>28625977</v>
       </c>
-      <c r="C512" s="4">
+      <c r="C512" s="3">
         <v>221</v>
       </c>
     </row>
@@ -6047,10 +6043,10 @@
       <c r="A513" s="1">
         <v>41794</v>
       </c>
-      <c r="B513" s="3">
+      <c r="B513" s="2">
         <v>23354288</v>
       </c>
-      <c r="C513" s="4">
+      <c r="C513" s="3">
         <v>192</v>
       </c>
     </row>
@@ -6058,10 +6054,10 @@
       <c r="A514" s="1">
         <v>41790</v>
       </c>
-      <c r="B514" s="3">
+      <c r="B514" s="2">
         <v>21652744</v>
       </c>
-      <c r="C514" s="4">
+      <c r="C514" s="3">
         <v>173</v>
       </c>
     </row>
@@ -6069,10 +6065,10 @@
       <c r="A515" s="1">
         <v>41787</v>
       </c>
-      <c r="B515" s="3">
+      <c r="B515" s="2">
         <v>17588282</v>
       </c>
-      <c r="C515" s="4">
+      <c r="C515" s="3">
         <v>152</v>
       </c>
     </row>
@@ -6080,10 +6076,10 @@
       <c r="A516" s="1">
         <v>41783</v>
       </c>
-      <c r="B516" s="3">
+      <c r="B516" s="2">
         <v>17929491</v>
       </c>
-      <c r="C516" s="4">
+      <c r="C516" s="3">
         <v>132</v>
       </c>
     </row>
@@ -6091,10 +6087,10 @@
       <c r="A517" s="1">
         <v>41780</v>
       </c>
-      <c r="B517" s="3">
+      <c r="B517" s="2">
         <v>15012965</v>
       </c>
-      <c r="C517" s="4">
+      <c r="C517" s="3">
         <v>114</v>
       </c>
     </row>
@@ -6102,10 +6098,10 @@
       <c r="A518" s="1">
         <v>41776</v>
       </c>
-      <c r="B518" s="3">
+      <c r="B518" s="2">
         <v>15654103</v>
       </c>
-      <c r="C518" s="4">
+      <c r="C518" s="3">
         <v>100</v>
       </c>
     </row>
@@ -6113,10 +6109,10 @@
       <c r="A519" s="1">
         <v>41773</v>
       </c>
-      <c r="B519" s="3">
+      <c r="B519" s="2">
         <v>12741835</v>
       </c>
-      <c r="C519" s="4">
+      <c r="C519" s="3">
         <v>90</v>
       </c>
     </row>
@@ -6124,10 +6120,10 @@
       <c r="A520" s="1">
         <v>41769</v>
       </c>
-      <c r="B520" s="3">
+      <c r="B520" s="2">
         <v>13815781</v>
       </c>
-      <c r="C520" s="4">
+      <c r="C520" s="3">
         <v>80</v>
       </c>
     </row>
@@ -6135,10 +6131,10 @@
       <c r="A521" s="1">
         <v>41766</v>
       </c>
-      <c r="B521" s="3">
+      <c r="B521" s="2">
         <v>12344242</v>
       </c>
-      <c r="C521" s="4">
+      <c r="C521" s="3">
         <v>70</v>
       </c>
     </row>
@@ -6146,10 +6142,10 @@
       <c r="A522" s="1">
         <v>41762</v>
       </c>
-      <c r="B522" s="3">
+      <c r="B522" s="2">
         <v>13471275</v>
       </c>
-      <c r="C522" s="4">
+      <c r="C522" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6157,10 +6153,10 @@
       <c r="A523" s="1">
         <v>41759</v>
       </c>
-      <c r="B523" s="3">
+      <c r="B523" s="2">
         <v>11555819</v>
       </c>
-      <c r="C523" s="4">
+      <c r="C523" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6168,10 +6164,10 @@
       <c r="A524" s="1">
         <v>41755</v>
       </c>
-      <c r="B524" s="3">
+      <c r="B524" s="2">
         <v>13008494</v>
       </c>
-      <c r="C524" s="4">
+      <c r="C524" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6179,10 +6175,10 @@
       <c r="A525" s="1">
         <v>41752</v>
       </c>
-      <c r="B525" s="3">
+      <c r="B525" s="2">
         <v>18373551</v>
       </c>
-      <c r="C525" s="4">
+      <c r="C525" s="3">
         <v>148.80000000000001</v>
       </c>
     </row>
@@ -6190,10 +6186,10 @@
       <c r="A526" s="1">
         <v>41748</v>
       </c>
-      <c r="B526" s="3">
+      <c r="B526" s="2">
         <v>18696234</v>
       </c>
-      <c r="C526" s="4">
+      <c r="C526" s="3">
         <v>128</v>
       </c>
     </row>
@@ -6201,10 +6197,10 @@
       <c r="A527" s="1">
         <v>41745</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B527" s="2">
         <v>16547603</v>
       </c>
-      <c r="C527" s="4">
+      <c r="C527" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6212,10 +6208,10 @@
       <c r="A528" s="1">
         <v>41741</v>
       </c>
-      <c r="B528" s="3">
+      <c r="B528" s="2">
         <v>15993806</v>
       </c>
-      <c r="C528" s="4">
+      <c r="C528" s="3">
         <v>94</v>
       </c>
     </row>
@@ -6223,10 +6219,10 @@
       <c r="A529" s="1">
         <v>41738</v>
       </c>
-      <c r="B529" s="3">
+      <c r="B529" s="2">
         <v>14001977</v>
       </c>
-      <c r="C529" s="4">
+      <c r="C529" s="3">
         <v>80</v>
       </c>
     </row>
@@ -6234,10 +6230,10 @@
       <c r="A530" s="1">
         <v>41734</v>
       </c>
-      <c r="B530" s="3">
+      <c r="B530" s="2">
         <v>14941886</v>
       </c>
-      <c r="C530" s="4">
+      <c r="C530" s="3">
         <v>70</v>
       </c>
     </row>
@@ -6245,10 +6241,10 @@
       <c r="A531" s="1">
         <v>41731</v>
       </c>
-      <c r="B531" s="3">
+      <c r="B531" s="2">
         <v>13226508</v>
       </c>
-      <c r="C531" s="4">
+      <c r="C531" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6256,10 +6252,10 @@
       <c r="A532" s="1">
         <v>41727</v>
       </c>
-      <c r="B532" s="3">
+      <c r="B532" s="2">
         <v>13786836</v>
       </c>
-      <c r="C532" s="4">
+      <c r="C532" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6267,10 +6263,10 @@
       <c r="A533" s="1">
         <v>41724</v>
       </c>
-      <c r="B533" s="3">
+      <c r="B533" s="2">
         <v>12123832</v>
       </c>
-      <c r="C533" s="4">
+      <c r="C533" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6278,10 +6274,10 @@
       <c r="A534" s="1">
         <v>41720</v>
       </c>
-      <c r="B534" s="3">
+      <c r="B534" s="2">
         <v>16032428</v>
       </c>
-      <c r="C534" s="4">
+      <c r="C534" s="3">
         <v>96</v>
       </c>
     </row>
@@ -6289,10 +6285,10 @@
       <c r="A535" s="1">
         <v>41717</v>
       </c>
-      <c r="B535" s="3">
+      <c r="B535" s="2">
         <v>14815237</v>
       </c>
-      <c r="C535" s="4">
+      <c r="C535" s="3">
         <v>80</v>
       </c>
     </row>
@@ -6300,10 +6296,10 @@
       <c r="A536" s="1">
         <v>41713</v>
       </c>
-      <c r="B536" s="3">
+      <c r="B536" s="2">
         <v>15271188</v>
       </c>
-      <c r="C536" s="4">
+      <c r="C536" s="3">
         <v>70</v>
       </c>
     </row>
@@ -6311,10 +6307,10 @@
       <c r="A537" s="1">
         <v>41710</v>
       </c>
-      <c r="B537" s="3">
+      <c r="B537" s="2">
         <v>13232222</v>
       </c>
-      <c r="C537" s="4">
+      <c r="C537" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6322,10 +6318,10 @@
       <c r="A538" s="1">
         <v>41706</v>
       </c>
-      <c r="B538" s="3">
+      <c r="B538" s="2">
         <v>14407002</v>
       </c>
-      <c r="C538" s="4">
+      <c r="C538" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6333,10 +6329,10 @@
       <c r="A539" s="1">
         <v>41703</v>
       </c>
-      <c r="B539" s="3">
+      <c r="B539" s="2">
         <v>12794138</v>
       </c>
-      <c r="C539" s="4">
+      <c r="C539" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6344,10 +6340,10 @@
       <c r="A540" s="1">
         <v>41699</v>
       </c>
-      <c r="B540" s="3">
+      <c r="B540" s="2">
         <v>15373908</v>
       </c>
-      <c r="C540" s="4">
+      <c r="C540" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6355,10 +6351,10 @@
       <c r="A541" s="1">
         <v>41696</v>
       </c>
-      <c r="B541" s="3">
+      <c r="B541" s="2">
         <v>13003422</v>
       </c>
-      <c r="C541" s="4">
+      <c r="C541" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6366,10 +6362,10 @@
       <c r="A542" s="1">
         <v>41692</v>
       </c>
-      <c r="B542" s="3">
+      <c r="B542" s="2">
         <v>14039106</v>
       </c>
-      <c r="C542" s="4">
+      <c r="C542" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6377,10 +6373,10 @@
       <c r="A543" s="1">
         <v>41689</v>
       </c>
-      <c r="B543" s="3">
+      <c r="B543" s="2">
         <v>91515511</v>
       </c>
-      <c r="C543" s="4">
+      <c r="C543" s="3">
         <v>425</v>
       </c>
     </row>
@@ -6388,10 +6384,10 @@
       <c r="A544" s="1">
         <v>41685</v>
       </c>
-      <c r="B544" s="3">
+      <c r="B544" s="2">
         <v>42251267</v>
       </c>
-      <c r="C544" s="4">
+      <c r="C544" s="3">
         <v>330</v>
       </c>
     </row>
@@ -6399,10 +6395,10 @@
       <c r="A545" s="1">
         <v>41682</v>
       </c>
-      <c r="B545" s="3">
+      <c r="B545" s="2">
         <v>33624954</v>
       </c>
-      <c r="C545" s="4">
+      <c r="C545" s="3">
         <v>284</v>
       </c>
     </row>
@@ -6410,10 +6406,10 @@
       <c r="A546" s="1">
         <v>41678</v>
       </c>
-      <c r="B546" s="3">
+      <c r="B546" s="2">
         <v>30832715</v>
       </c>
-      <c r="C546" s="4">
+      <c r="C546" s="3">
         <v>247</v>
       </c>
     </row>
@@ -6421,10 +6417,10 @@
       <c r="A547" s="1">
         <v>41675</v>
       </c>
-      <c r="B547" s="3">
+      <c r="B547" s="2">
         <v>24755321</v>
       </c>
-      <c r="C547" s="4">
+      <c r="C547" s="3">
         <v>215</v>
       </c>
     </row>
@@ -6432,10 +6428,10 @@
       <c r="A548" s="1">
         <v>41671</v>
       </c>
-      <c r="B548" s="3">
+      <c r="B548" s="2">
         <v>24531208</v>
       </c>
-      <c r="C548" s="4">
+      <c r="C548" s="3">
         <v>194</v>
       </c>
     </row>
@@ -6443,10 +6439,10 @@
       <c r="A549" s="1">
         <v>41668</v>
       </c>
-      <c r="B549" s="3">
+      <c r="B549" s="2">
         <v>19128704</v>
       </c>
-      <c r="C549" s="4">
+      <c r="C549" s="3">
         <v>171</v>
       </c>
     </row>
@@ -6454,10 +6450,10 @@
       <c r="A550" s="1">
         <v>41664</v>
       </c>
-      <c r="B550" s="3">
+      <c r="B550" s="2">
         <v>19698338</v>
       </c>
-      <c r="C550" s="4">
+      <c r="C550" s="3">
         <v>152</v>
       </c>
     </row>
@@ -6465,10 +6461,10 @@
       <c r="A551" s="1">
         <v>41661</v>
       </c>
-      <c r="B551" s="3">
+      <c r="B551" s="2">
         <v>16357315</v>
       </c>
-      <c r="C551" s="4">
+      <c r="C551" s="3">
         <v>131</v>
       </c>
     </row>
@@ -6476,10 +6472,10 @@
       <c r="A552" s="1">
         <v>41657</v>
       </c>
-      <c r="B552" s="3">
+      <c r="B552" s="2">
         <v>17851712</v>
       </c>
-      <c r="C552" s="4">
+      <c r="C552" s="3">
         <v>113</v>
       </c>
     </row>
@@ -6487,10 +6483,10 @@
       <c r="A553" s="1">
         <v>41654</v>
       </c>
-      <c r="B553" s="3">
+      <c r="B553" s="2">
         <v>14727225</v>
       </c>
-      <c r="C553" s="4">
+      <c r="C553" s="3">
         <v>93</v>
       </c>
     </row>
@@ -6498,10 +6494,10 @@
       <c r="A554" s="1">
         <v>41650</v>
       </c>
-      <c r="B554" s="3">
+      <c r="B554" s="2">
         <v>14808462</v>
       </c>
-      <c r="C554" s="4">
+      <c r="C554" s="3">
         <v>80</v>
       </c>
     </row>
@@ -6509,10 +6505,10 @@
       <c r="A555" s="1">
         <v>41647</v>
       </c>
-      <c r="B555" s="3">
+      <c r="B555" s="2">
         <v>12880837</v>
       </c>
-      <c r="C555" s="4">
+      <c r="C555" s="3">
         <v>70</v>
       </c>
     </row>
@@ -6520,10 +6516,10 @@
       <c r="A556" s="1">
         <v>41643</v>
       </c>
-      <c r="B556" s="3">
+      <c r="B556" s="2">
         <v>13872545</v>
       </c>
-      <c r="C556" s="4">
+      <c r="C556" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6531,10 +6527,10 @@
       <c r="A557" s="1">
         <v>41640</v>
       </c>
-      <c r="B557" s="3">
+      <c r="B557" s="2">
         <v>12560815</v>
       </c>
-      <c r="C557" s="4">
+      <c r="C557" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6542,10 +6538,10 @@
       <c r="A558" s="1">
         <v>41636</v>
       </c>
-      <c r="B558" s="3">
+      <c r="B558" s="2">
         <v>13149099</v>
       </c>
-      <c r="C558" s="4">
+      <c r="C558" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6553,10 +6549,10 @@
       <c r="A559" s="1">
         <v>41633</v>
       </c>
-      <c r="B559" s="3">
+      <c r="B559" s="2">
         <v>13644833</v>
       </c>
-      <c r="C559" s="4">
+      <c r="C559" s="3">
         <v>74</v>
       </c>
     </row>
@@ -6564,10 +6560,10 @@
       <c r="A560" s="1">
         <v>41629</v>
       </c>
-      <c r="B560" s="3">
+      <c r="B560" s="2">
         <v>14493441</v>
       </c>
-      <c r="C560" s="4">
+      <c r="C560" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6575,10 +6571,10 @@
       <c r="A561" s="1">
         <v>41626</v>
       </c>
-      <c r="B561" s="3">
+      <c r="B561" s="2">
         <v>16700723</v>
       </c>
-      <c r="C561" s="4">
+      <c r="C561" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6586,10 +6582,10 @@
       <c r="A562" s="1">
         <v>41622</v>
       </c>
-      <c r="B562" s="3">
+      <c r="B562" s="2">
         <v>17513605</v>
       </c>
-      <c r="C562" s="4">
+      <c r="C562" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6597,10 +6593,10 @@
       <c r="A563" s="1">
         <v>41619</v>
       </c>
-      <c r="B563" s="3">
+      <c r="B563" s="2">
         <v>18409451</v>
       </c>
-      <c r="C563" s="4">
+      <c r="C563" s="3">
         <v>122</v>
       </c>
     </row>
@@ -6608,10 +6604,10 @@
       <c r="A564" s="1">
         <v>41615</v>
       </c>
-      <c r="B564" s="3">
+      <c r="B564" s="2">
         <v>17944662</v>
       </c>
-      <c r="C564" s="4">
+      <c r="C564" s="3">
         <v>100</v>
       </c>
     </row>
@@ -6619,10 +6615,10 @@
       <c r="A565" s="1">
         <v>41612</v>
       </c>
-      <c r="B565" s="3">
+      <c r="B565" s="2">
         <v>14722090</v>
       </c>
-      <c r="C565" s="4">
+      <c r="C565" s="3">
         <v>81</v>
       </c>
     </row>
@@ -6630,10 +6626,10 @@
       <c r="A566" s="1">
         <v>41608</v>
       </c>
-      <c r="B566" s="3">
+      <c r="B566" s="2">
         <v>14346539</v>
       </c>
-      <c r="C566" s="4">
+      <c r="C566" s="3">
         <v>70</v>
       </c>
     </row>
@@ -6641,10 +6637,10 @@
       <c r="A567" s="1">
         <v>41605</v>
       </c>
-      <c r="B567" s="3">
+      <c r="B567" s="2">
         <v>14091491</v>
       </c>
-      <c r="C567" s="4">
+      <c r="C567" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6652,10 +6648,10 @@
       <c r="A568" s="1">
         <v>41601</v>
       </c>
-      <c r="B568" s="3">
+      <c r="B568" s="2">
         <v>14591441</v>
       </c>
-      <c r="C568" s="4">
+      <c r="C568" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6663,10 +6659,10 @@
       <c r="A569" s="1">
         <v>41598</v>
       </c>
-      <c r="B569" s="3">
+      <c r="B569" s="2">
         <v>12967362</v>
       </c>
-      <c r="C569" s="4">
+      <c r="C569" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6674,10 +6670,10 @@
       <c r="A570" s="1">
         <v>41594</v>
       </c>
-      <c r="B570" s="3">
+      <c r="B570" s="2">
         <v>20123994</v>
       </c>
-      <c r="C570" s="4">
+      <c r="C570" s="3">
         <v>130</v>
       </c>
     </row>
@@ -6685,10 +6681,10 @@
       <c r="A571" s="1">
         <v>41591</v>
       </c>
-      <c r="B571" s="3">
+      <c r="B571" s="2">
         <v>17339390</v>
       </c>
-      <c r="C571" s="4">
+      <c r="C571" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6696,10 +6692,10 @@
       <c r="A572" s="1">
         <v>41587</v>
       </c>
-      <c r="B572" s="3">
+      <c r="B572" s="2">
         <v>16926851</v>
       </c>
-      <c r="C572" s="4">
+      <c r="C572" s="3">
         <v>87</v>
       </c>
     </row>
@@ -6707,10 +6703,10 @@
       <c r="A573" s="1">
         <v>41584</v>
       </c>
-      <c r="B573" s="3">
+      <c r="B573" s="2">
         <v>14889620</v>
       </c>
-      <c r="C573" s="4">
+      <c r="C573" s="3">
         <v>70</v>
       </c>
     </row>
@@ -6718,10 +6714,10 @@
       <c r="A574" s="1">
         <v>41580</v>
       </c>
-      <c r="B574" s="3">
+      <c r="B574" s="2">
         <v>16214773</v>
       </c>
-      <c r="C574" s="4">
+      <c r="C574" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6729,10 +6725,10 @@
       <c r="A575" s="1">
         <v>41577</v>
       </c>
-      <c r="B575" s="3">
+      <c r="B575" s="2">
         <v>13915497</v>
       </c>
-      <c r="C575" s="4">
+      <c r="C575" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6740,10 +6736,10 @@
       <c r="A576" s="1">
         <v>41573</v>
       </c>
-      <c r="B576" s="3">
+      <c r="B576" s="2">
         <v>15901274</v>
       </c>
-      <c r="C576" s="4">
+      <c r="C576" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6751,10 +6747,10 @@
       <c r="A577" s="1">
         <v>41570</v>
       </c>
-      <c r="B577" s="3">
+      <c r="B577" s="2">
         <v>29254344</v>
       </c>
-      <c r="C577" s="4">
+      <c r="C577" s="3">
         <v>216</v>
       </c>
     </row>
@@ -6762,10 +6758,10 @@
       <c r="A578" s="1">
         <v>41566</v>
       </c>
-      <c r="B578" s="3">
+      <c r="B578" s="2">
         <v>26044953</v>
       </c>
-      <c r="C578" s="4">
+      <c r="C578" s="3">
         <v>186</v>
       </c>
     </row>
@@ -6773,10 +6769,10 @@
       <c r="A579" s="1">
         <v>41563</v>
       </c>
-      <c r="B579" s="3">
+      <c r="B579" s="2">
         <v>22678841</v>
       </c>
-      <c r="C579" s="4">
+      <c r="C579" s="3">
         <v>156</v>
       </c>
     </row>
@@ -6784,10 +6780,10 @@
       <c r="A580" s="1">
         <v>41559</v>
       </c>
-      <c r="B580" s="3">
+      <c r="B580" s="2">
         <v>22387616</v>
       </c>
-      <c r="C580" s="4">
+      <c r="C580" s="3">
         <v>133</v>
       </c>
     </row>
@@ -6795,10 +6791,10 @@
       <c r="A581" s="1">
         <v>41556</v>
       </c>
-      <c r="B581" s="3">
+      <c r="B581" s="2">
         <v>19527491</v>
       </c>
-      <c r="C581" s="4">
+      <c r="C581" s="3">
         <v>108</v>
       </c>
     </row>
@@ -6806,10 +6802,10 @@
       <c r="A582" s="1">
         <v>41552</v>
       </c>
-      <c r="B582" s="3">
+      <c r="B582" s="2">
         <v>18374569</v>
       </c>
-      <c r="C582" s="4">
+      <c r="C582" s="3">
         <v>86</v>
       </c>
     </row>
@@ -6817,10 +6813,10 @@
       <c r="A583" s="1">
         <v>41549</v>
       </c>
-      <c r="B583" s="3">
+      <c r="B583" s="2">
         <v>15965590</v>
       </c>
-      <c r="C583" s="4">
+      <c r="C583" s="3">
         <v>70</v>
       </c>
     </row>
@@ -6828,10 +6824,10 @@
       <c r="A584" s="1">
         <v>41545</v>
       </c>
-      <c r="B584" s="3">
+      <c r="B584" s="2">
         <v>16961943</v>
       </c>
-      <c r="C584" s="4">
+      <c r="C584" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6839,10 +6835,10 @@
       <c r="A585" s="1">
         <v>41542</v>
       </c>
-      <c r="B585" s="3">
+      <c r="B585" s="2">
         <v>15122369</v>
       </c>
-      <c r="C585" s="4">
+      <c r="C585" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6850,10 +6846,10 @@
       <c r="A586" s="1">
         <v>41538</v>
       </c>
-      <c r="B586" s="3">
+      <c r="B586" s="2">
         <v>16148020</v>
       </c>
-      <c r="C586" s="4">
+      <c r="C586" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6861,10 +6857,10 @@
       <c r="A587" s="1">
         <v>41535</v>
       </c>
-      <c r="B587" s="3">
+      <c r="B587" s="2">
         <v>91386746</v>
       </c>
-      <c r="C587" s="4">
+      <c r="C587" s="3">
         <v>400</v>
       </c>
     </row>
@@ -6872,10 +6868,10 @@
       <c r="A588" s="1">
         <v>41531</v>
       </c>
-      <c r="B588" s="3">
+      <c r="B588" s="2">
         <v>50688563</v>
       </c>
-      <c r="C588" s="4">
+      <c r="C588" s="3">
         <v>317</v>
       </c>
     </row>
@@ -6883,10 +6879,10 @@
       <c r="A589" s="1">
         <v>41528</v>
       </c>
-      <c r="B589" s="3">
+      <c r="B589" s="2">
         <v>36842502</v>
       </c>
-      <c r="C589" s="4">
+      <c r="C589" s="3">
         <v>245</v>
       </c>
     </row>
@@ -6894,10 +6890,10 @@
       <c r="A590" s="1">
         <v>41524</v>
       </c>
-      <c r="B590" s="3">
+      <c r="B590" s="2">
         <v>33368027</v>
       </c>
-      <c r="C590" s="4">
+      <c r="C590" s="3">
         <v>203</v>
       </c>
     </row>
@@ -6905,10 +6901,10 @@
       <c r="A591" s="1">
         <v>41521</v>
       </c>
-      <c r="B591" s="3">
+      <c r="B591" s="2">
         <v>25082127</v>
       </c>
-      <c r="C591" s="4">
+      <c r="C591" s="3">
         <v>169</v>
       </c>
     </row>
@@ -6916,10 +6912,10 @@
       <c r="A592" s="1">
         <v>41517</v>
       </c>
-      <c r="B592" s="3">
+      <c r="B592" s="2">
         <v>26073438</v>
       </c>
-      <c r="C592" s="4">
+      <c r="C592" s="3">
         <v>142</v>
       </c>
     </row>
@@ -6927,10 +6923,10 @@
       <c r="A593" s="1">
         <v>41514</v>
       </c>
-      <c r="B593" s="3">
+      <c r="B593" s="2">
         <v>21578885</v>
       </c>
-      <c r="C593" s="4">
+      <c r="C593" s="3">
         <v>116</v>
       </c>
     </row>
@@ -6938,10 +6934,10 @@
       <c r="A594" s="1">
         <v>41510</v>
       </c>
-      <c r="B594" s="3">
+      <c r="B594" s="2">
         <v>20251884</v>
       </c>
-      <c r="C594" s="4">
+      <c r="C594" s="3">
         <v>92</v>
       </c>
     </row>
@@ -6949,10 +6945,10 @@
       <c r="A595" s="1">
         <v>41507</v>
       </c>
-      <c r="B595" s="3">
+      <c r="B595" s="2">
         <v>17137314</v>
       </c>
-      <c r="C595" s="4">
+      <c r="C595" s="3">
         <v>70</v>
       </c>
     </row>
@@ -6960,10 +6956,10 @@
       <c r="A596" s="1">
         <v>41503</v>
       </c>
-      <c r="B596" s="3">
+      <c r="B596" s="2">
         <v>18074850</v>
       </c>
-      <c r="C596" s="4">
+      <c r="C596" s="3">
         <v>60</v>
       </c>
     </row>
@@ -6971,10 +6967,10 @@
       <c r="A597" s="1">
         <v>41500</v>
       </c>
-      <c r="B597" s="3">
+      <c r="B597" s="2">
         <v>15689898</v>
       </c>
-      <c r="C597" s="4">
+      <c r="C597" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6982,10 +6978,10 @@
       <c r="A598" s="1">
         <v>41496</v>
       </c>
-      <c r="B598" s="3">
+      <c r="B598" s="2">
         <v>16223299</v>
       </c>
-      <c r="C598" s="4">
+      <c r="C598" s="3">
         <v>40</v>
       </c>
     </row>
@@ -6993,10 +6989,10 @@
       <c r="A599" s="1">
         <v>41493</v>
       </c>
-      <c r="B599" s="3">
+      <c r="B599" s="2">
         <v>135504655</v>
       </c>
-      <c r="C599" s="4">
+      <c r="C599" s="3">
         <v>425</v>
       </c>
     </row>
@@ -7004,10 +7000,10 @@
       <c r="A600" s="1">
         <v>41489</v>
       </c>
-      <c r="B600" s="3">
+      <c r="B600" s="2">
         <v>59090520</v>
       </c>
-      <c r="C600" s="4">
+      <c r="C600" s="3">
         <v>300</v>
       </c>
     </row>
@@ -7015,10 +7011,10 @@
       <c r="A601" s="1">
         <v>41486</v>
       </c>
-      <c r="B601" s="3">
+      <c r="B601" s="2">
         <v>41007391</v>
       </c>
-      <c r="C601" s="4">
+      <c r="C601" s="3">
         <v>235</v>
       </c>
     </row>
@@ -7026,10 +7022,10 @@
       <c r="A602" s="1">
         <v>41482</v>
       </c>
-      <c r="B602" s="3">
+      <c r="B602" s="2">
         <v>31682657</v>
       </c>
-      <c r="C602" s="4">
+      <c r="C602" s="3">
         <v>196</v>
       </c>
     </row>
@@ -7037,10 +7033,10 @@
       <c r="A603" s="1">
         <v>41479</v>
       </c>
-      <c r="B603" s="3">
+      <c r="B603" s="2">
         <v>24699510</v>
       </c>
-      <c r="C603" s="4">
+      <c r="C603" s="3">
         <v>166</v>
       </c>
     </row>
@@ -7048,10 +7044,10 @@
       <c r="A604" s="1">
         <v>41475</v>
       </c>
-      <c r="B604" s="3">
+      <c r="B604" s="2">
         <v>23872913</v>
       </c>
-      <c r="C604" s="4">
+      <c r="C604" s="3">
         <v>141</v>
       </c>
     </row>
@@ -7059,10 +7055,10 @@
       <c r="A605" s="1">
         <v>41472</v>
       </c>
-      <c r="B605" s="3">
+      <c r="B605" s="2">
         <v>19846437</v>
       </c>
-      <c r="C605" s="4">
+      <c r="C605" s="3">
         <v>116</v>
       </c>
     </row>
@@ -7070,10 +7066,10 @@
       <c r="A606" s="1">
         <v>41468</v>
       </c>
-      <c r="B606" s="3">
+      <c r="B606" s="2">
         <v>18655734</v>
       </c>
-      <c r="C606" s="4">
+      <c r="C606" s="3">
         <v>94</v>
       </c>
     </row>
@@ -7081,10 +7077,10 @@
       <c r="A607" s="1">
         <v>41465</v>
       </c>
-      <c r="B607" s="3">
+      <c r="B607" s="2">
         <v>15717670</v>
       </c>
-      <c r="C607" s="4">
+      <c r="C607" s="3">
         <v>80</v>
       </c>
     </row>
@@ -7092,10 +7088,10 @@
       <c r="A608" s="1">
         <v>41461</v>
       </c>
-      <c r="B608" s="3">
+      <c r="B608" s="2">
         <v>15864688</v>
       </c>
-      <c r="C608" s="4">
+      <c r="C608" s="3">
         <v>70</v>
       </c>
     </row>
@@ -7103,10 +7099,10 @@
       <c r="A609" s="1">
         <v>41458</v>
       </c>
-      <c r="B609" s="3">
+      <c r="B609" s="2">
         <v>14927436</v>
       </c>
-      <c r="C609" s="4">
+      <c r="C609" s="3">
         <v>60</v>
       </c>
     </row>
@@ -7114,10 +7110,10 @@
       <c r="A610" s="1">
         <v>41454</v>
       </c>
-      <c r="B610" s="3">
+      <c r="B610" s="2">
         <v>15902896</v>
       </c>
-      <c r="C610" s="4">
+      <c r="C610" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7125,10 +7121,10 @@
       <c r="A611" s="1">
         <v>41451</v>
       </c>
-      <c r="B611" s="3">
+      <c r="B611" s="2">
         <v>13850110</v>
       </c>
-      <c r="C611" s="4">
+      <c r="C611" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7136,10 +7132,10 @@
       <c r="A612" s="1">
         <v>41447</v>
       </c>
-      <c r="B612" s="3">
+      <c r="B612" s="2">
         <v>22740644</v>
       </c>
-      <c r="C612" s="4">
+      <c r="C612" s="3">
         <v>127</v>
       </c>
     </row>
@@ -7147,10 +7143,10 @@
       <c r="A613" s="1">
         <v>41444</v>
       </c>
-      <c r="B613" s="3">
+      <c r="B613" s="2">
         <v>19604424</v>
       </c>
-      <c r="C613" s="4">
+      <c r="C613" s="3">
         <v>105</v>
       </c>
     </row>
@@ -7158,10 +7154,10 @@
       <c r="A614" s="1">
         <v>41440</v>
       </c>
-      <c r="B614" s="3">
+      <c r="B614" s="2">
         <v>19156543</v>
       </c>
-      <c r="C614" s="4">
+      <c r="C614" s="3">
         <v>85</v>
       </c>
     </row>
@@ -7169,10 +7165,10 @@
       <c r="A615" s="1">
         <v>41437</v>
       </c>
-      <c r="B615" s="3">
+      <c r="B615" s="2">
         <v>16431347</v>
       </c>
-      <c r="C615" s="4">
+      <c r="C615" s="3">
         <v>70</v>
       </c>
     </row>
@@ -7180,10 +7176,10 @@
       <c r="A616" s="1">
         <v>41433</v>
       </c>
-      <c r="B616" s="3">
+      <c r="B616" s="2">
         <v>18281058</v>
       </c>
-      <c r="C616" s="4">
+      <c r="C616" s="3">
         <v>60</v>
       </c>
     </row>
@@ -7191,10 +7187,10 @@
       <c r="A617" s="1">
         <v>41430</v>
       </c>
-      <c r="B617" s="3">
+      <c r="B617" s="2">
         <v>15678200</v>
       </c>
-      <c r="C617" s="4">
+      <c r="C617" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7202,10 +7198,10 @@
       <c r="A618" s="1">
         <v>41426</v>
       </c>
-      <c r="B618" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C618" s="4">
+      <c r="B618" s="2">
+        <v>17234496</v>
+      </c>
+      <c r="C618" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7213,10 +7209,10 @@
       <c r="A619" s="1">
         <v>41423</v>
       </c>
-      <c r="B619" s="3">
+      <c r="B619" s="2">
         <v>14702362</v>
       </c>
-      <c r="C619" s="4">
+      <c r="C619" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7224,10 +7220,10 @@
       <c r="A620" s="1">
         <v>41419</v>
       </c>
-      <c r="B620" s="3">
+      <c r="B620" s="2">
         <v>18245160</v>
       </c>
-      <c r="C620" s="4">
+      <c r="C620" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7235,10 +7231,10 @@
       <c r="A621" s="1">
         <v>41416</v>
       </c>
-      <c r="B621" s="3">
+      <c r="B621" s="2">
         <v>16459483</v>
       </c>
-      <c r="C621" s="4">
+      <c r="C621" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7246,10 +7242,10 @@
       <c r="A622" s="1">
         <v>41412</v>
       </c>
-      <c r="B622" s="3">
+      <c r="B622" s="2">
         <v>232268274</v>
       </c>
-      <c r="C622" s="5">
+      <c r="C622" s="4">
         <v>590.5</v>
       </c>
     </row>
@@ -7257,10 +7253,10 @@
       <c r="A623" s="1">
         <v>41409</v>
       </c>
-      <c r="B623" s="3">
+      <c r="B623" s="2">
         <v>90135085</v>
       </c>
-      <c r="C623" s="4">
+      <c r="C623" s="3">
         <v>350</v>
       </c>
     </row>
@@ -7268,10 +7264,10 @@
       <c r="A624" s="1">
         <v>41405</v>
       </c>
-      <c r="B624" s="3">
+      <c r="B624" s="2">
         <v>46814428</v>
       </c>
-      <c r="C624" s="4">
+      <c r="C624" s="3">
         <v>270</v>
       </c>
     </row>
@@ -7279,10 +7275,10 @@
       <c r="A625" s="1">
         <v>41402</v>
       </c>
-      <c r="B625" s="3">
+      <c r="B625" s="2">
         <v>38955958</v>
       </c>
-      <c r="C625" s="4">
+      <c r="C625" s="3">
         <v>222</v>
       </c>
     </row>
@@ -7290,10 +7286,10 @@
       <c r="A626" s="1">
         <v>41398</v>
       </c>
-      <c r="B626" s="3">
+      <c r="B626" s="2">
         <v>32117305</v>
       </c>
-      <c r="C626" s="4">
+      <c r="C626" s="3">
         <v>191</v>
       </c>
     </row>
@@ -7301,10 +7297,10 @@
       <c r="A627" s="1">
         <v>41395</v>
       </c>
-      <c r="B627" s="3">
+      <c r="B627" s="2">
         <v>26601158</v>
       </c>
-      <c r="C627" s="4">
+      <c r="C627" s="3">
         <v>165</v>
       </c>
     </row>
@@ -7312,10 +7308,10 @@
       <c r="A628" s="1">
         <v>41391</v>
       </c>
-      <c r="B628" s="3">
+      <c r="B628" s="2">
         <v>25672662</v>
       </c>
-      <c r="C628" s="4">
+      <c r="C628" s="3">
         <v>140</v>
       </c>
     </row>
@@ -7323,10 +7319,10 @@
       <c r="A629" s="1">
         <v>41388</v>
       </c>
-      <c r="B629" s="3">
+      <c r="B629" s="2">
         <v>22139326</v>
       </c>
-      <c r="C629" s="4">
+      <c r="C629" s="3">
         <v>116</v>
       </c>
     </row>
@@ -7334,10 +7330,10 @@
       <c r="A630" s="1">
         <v>41384</v>
       </c>
-      <c r="B630" s="3">
+      <c r="B630" s="2">
         <v>20291902</v>
       </c>
-      <c r="C630" s="4">
+      <c r="C630" s="3">
         <v>95</v>
       </c>
     </row>
@@ -7345,10 +7341,10 @@
       <c r="A631" s="1">
         <v>41381</v>
       </c>
-      <c r="B631" s="3">
+      <c r="B631" s="2">
         <v>17670782</v>
       </c>
-      <c r="C631" s="4">
+      <c r="C631" s="3">
         <v>80</v>
       </c>
     </row>
@@ -7356,10 +7352,10 @@
       <c r="A632" s="1">
         <v>41377</v>
       </c>
-      <c r="B632" s="3">
+      <c r="B632" s="2">
         <v>19179345</v>
       </c>
-      <c r="C632" s="4">
+      <c r="C632" s="3">
         <v>70</v>
       </c>
     </row>
@@ -7367,10 +7363,10 @@
       <c r="A633" s="1">
         <v>41374</v>
       </c>
-      <c r="B633" s="3">
+      <c r="B633" s="2">
         <v>18089887</v>
       </c>
-      <c r="C633" s="4">
+      <c r="C633" s="3">
         <v>60</v>
       </c>
     </row>
@@ -7378,10 +7374,10 @@
       <c r="A634" s="1">
         <v>41370</v>
       </c>
-      <c r="B634" s="3">
+      <c r="B634" s="2">
         <v>15556213</v>
       </c>
-      <c r="C634" s="4">
+      <c r="C634" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7389,10 +7385,10 @@
       <c r="A635" s="1">
         <v>41367</v>
       </c>
-      <c r="B635" s="3">
+      <c r="B635" s="2">
         <v>13173024</v>
       </c>
-      <c r="C635" s="4">
+      <c r="C635" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7400,10 +7396,10 @@
       <c r="A636" s="1">
         <v>41363</v>
       </c>
-      <c r="B636" s="3">
+      <c r="B636" s="2">
         <v>15548116</v>
       </c>
-      <c r="C636" s="4">
+      <c r="C636" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7411,10 +7407,10 @@
       <c r="A637" s="1">
         <v>41360</v>
       </c>
-      <c r="B637" s="3">
+      <c r="B637" s="2">
         <v>12750426</v>
       </c>
-      <c r="C637" s="4">
+      <c r="C637" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7422,10 +7418,10 @@
       <c r="A638" s="1">
         <v>41356</v>
       </c>
-      <c r="B638" s="3">
+      <c r="B638" s="2">
         <v>81596057</v>
       </c>
-      <c r="C638" s="4">
+      <c r="C638" s="3">
         <v>320</v>
       </c>
     </row>
@@ -7433,10 +7429,10 @@
       <c r="A639" s="1">
         <v>41353</v>
       </c>
-      <c r="B639" s="3">
+      <c r="B639" s="2">
         <v>45437055</v>
       </c>
-      <c r="C639" s="4">
+      <c r="C639" s="3">
         <v>260</v>
       </c>
     </row>
@@ -7444,10 +7440,10 @@
       <c r="A640" s="1">
         <v>41349</v>
       </c>
-      <c r="B640" s="3">
+      <c r="B640" s="2">
         <v>37195608</v>
       </c>
-      <c r="C640" s="4">
+      <c r="C640" s="3">
         <v>216</v>
       </c>
     </row>
@@ -7455,10 +7451,10 @@
       <c r="A641" s="1">
         <v>41346</v>
       </c>
-      <c r="B641" s="3">
+      <c r="B641" s="2">
         <v>28289737</v>
       </c>
-      <c r="C641" s="4">
+      <c r="C641" s="3">
         <v>183</v>
       </c>
     </row>
@@ -7466,10 +7462,10 @@
       <c r="A642" s="1">
         <v>41342</v>
       </c>
-      <c r="B642" s="3">
+      <c r="B642" s="2">
         <v>25398485</v>
       </c>
-      <c r="C642" s="4">
+      <c r="C642" s="3">
         <v>150</v>
       </c>
     </row>
@@ -7477,10 +7473,10 @@
       <c r="A643" s="1">
         <v>41339</v>
       </c>
-      <c r="B643" s="3">
+      <c r="B643" s="2">
         <v>21946171</v>
       </c>
-      <c r="C643" s="4">
+      <c r="C643" s="3">
         <v>123</v>
       </c>
     </row>
@@ -7488,10 +7484,10 @@
       <c r="A644" s="1">
         <v>41335</v>
       </c>
-      <c r="B644" s="3">
+      <c r="B644" s="2">
         <v>21881798</v>
       </c>
-      <c r="C644" s="4">
+      <c r="C644" s="3">
         <v>103</v>
       </c>
     </row>
@@ -7499,10 +7495,10 @@
       <c r="A645" s="1">
         <v>41332</v>
       </c>
-      <c r="B645" s="3">
+      <c r="B645" s="2">
         <v>16323890</v>
       </c>
-      <c r="C645" s="4">
+      <c r="C645" s="3">
         <v>90</v>
       </c>
     </row>
@@ -7510,10 +7506,10 @@
       <c r="A646" s="1">
         <v>41328</v>
       </c>
-      <c r="B646" s="3">
+      <c r="B646" s="2">
         <v>16588261</v>
       </c>
-      <c r="C646" s="4">
+      <c r="C646" s="3">
         <v>80</v>
       </c>
     </row>
@@ -7521,10 +7517,10 @@
       <c r="A647" s="1">
         <v>41325</v>
       </c>
-      <c r="B647" s="3">
+      <c r="B647" s="2">
         <v>14439931</v>
       </c>
-      <c r="C647" s="4">
+      <c r="C647" s="3">
         <v>70</v>
       </c>
     </row>
@@ -7532,10 +7528,10 @@
       <c r="A648" s="1">
         <v>41321</v>
       </c>
-      <c r="B648" s="3">
+      <c r="B648" s="2">
         <v>15346064</v>
       </c>
-      <c r="C648" s="4">
+      <c r="C648" s="3">
         <v>60</v>
       </c>
     </row>
@@ -7543,10 +7539,10 @@
       <c r="A649" s="1">
         <v>41318</v>
       </c>
-      <c r="B649" s="3">
+      <c r="B649" s="2">
         <v>13355213</v>
       </c>
-      <c r="C649" s="4">
+      <c r="C649" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7554,10 +7550,10 @@
       <c r="A650" s="1">
         <v>41314</v>
       </c>
-      <c r="B650" s="3">
+      <c r="B650" s="2">
         <v>14199435</v>
       </c>
-      <c r="C650" s="4">
+      <c r="C650" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7565,10 +7561,10 @@
       <c r="A651" s="1">
         <v>41311</v>
       </c>
-      <c r="B651" s="3">
+      <c r="B651" s="2">
         <v>35771794</v>
       </c>
-      <c r="C651" s="4">
+      <c r="C651" s="3">
         <v>208</v>
       </c>
     </row>
@@ -7576,10 +7572,10 @@
       <c r="A652" s="1">
         <v>41307</v>
       </c>
-      <c r="B652" s="3">
+      <c r="B652" s="2">
         <v>28822164</v>
       </c>
-      <c r="C652" s="4">
+      <c r="C652" s="3">
         <v>176</v>
       </c>
     </row>
@@ -7587,10 +7583,10 @@
       <c r="A653" s="1">
         <v>41304</v>
       </c>
-      <c r="B653" s="3">
+      <c r="B653" s="2">
         <v>22853033</v>
       </c>
-      <c r="C653" s="4">
+      <c r="C653" s="3">
         <v>151</v>
       </c>
     </row>
@@ -7598,10 +7594,10 @@
       <c r="A654" s="1">
         <v>41300</v>
       </c>
-      <c r="B654" s="3">
+      <c r="B654" s="2">
         <v>20811569</v>
       </c>
-      <c r="C654" s="4">
+      <c r="C654" s="3">
         <v>130</v>
       </c>
     </row>
@@ -7609,10 +7605,10 @@
       <c r="A655" s="1">
         <v>41297</v>
       </c>
-      <c r="B655" s="3">
+      <c r="B655" s="2">
         <v>17846722</v>
       </c>
-      <c r="C655" s="4">
+      <c r="C655" s="3">
         <v>110</v>
       </c>
     </row>
@@ -7620,10 +7616,10 @@
       <c r="A656" s="1">
         <v>41293</v>
       </c>
-      <c r="B656" s="3">
+      <c r="B656" s="2">
         <v>19459142</v>
       </c>
-      <c r="C656" s="4">
+      <c r="C656" s="3">
         <v>100</v>
       </c>
     </row>
@@ -7631,10 +7627,10 @@
       <c r="A657" s="1">
         <v>41290</v>
       </c>
-      <c r="B657" s="3">
+      <c r="B657" s="2">
         <v>14403878</v>
       </c>
-      <c r="C657" s="4">
+      <c r="C657" s="3">
         <v>90</v>
       </c>
     </row>
@@ -7642,10 +7638,10 @@
       <c r="A658" s="1">
         <v>41286</v>
       </c>
-      <c r="B658" s="3">
+      <c r="B658" s="2">
         <v>14958769</v>
       </c>
-      <c r="C658" s="4">
+      <c r="C658" s="3">
         <v>80</v>
       </c>
     </row>
@@ -7653,10 +7649,10 @@
       <c r="A659" s="1">
         <v>41283</v>
       </c>
-      <c r="B659" s="3">
+      <c r="B659" s="2">
         <v>13307128</v>
       </c>
-      <c r="C659" s="4">
+      <c r="C659" s="3">
         <v>70</v>
       </c>
     </row>
@@ -7664,10 +7660,10 @@
       <c r="A660" s="1">
         <v>41279</v>
       </c>
-      <c r="B660" s="3">
+      <c r="B660" s="2">
         <v>14048755</v>
       </c>
-      <c r="C660" s="4">
+      <c r="C660" s="3">
         <v>60</v>
       </c>
     </row>
@@ -7675,10 +7671,10 @@
       <c r="A661" s="1">
         <v>41276</v>
       </c>
-      <c r="B661" s="3">
+      <c r="B661" s="2">
         <v>12072421</v>
       </c>
-      <c r="C661" s="4">
+      <c r="C661" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7686,10 +7682,10 @@
       <c r="A662" s="1">
         <v>41272</v>
       </c>
-      <c r="B662" s="3">
+      <c r="B662" s="2">
         <v>13248247</v>
       </c>
-      <c r="C662" s="4">
+      <c r="C662" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7697,10 +7693,10 @@
       <c r="A663" s="1">
         <v>41269</v>
       </c>
-      <c r="B663" s="3">
+      <c r="B663" s="2">
         <v>12339295</v>
       </c>
-      <c r="C663" s="4">
+      <c r="C663" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7708,10 +7704,10 @@
       <c r="A664" s="1">
         <v>41265</v>
       </c>
-      <c r="B664" s="3">
+      <c r="B664" s="2">
         <v>14113250</v>
       </c>
-      <c r="C664" s="4">
+      <c r="C664" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7719,10 +7715,10 @@
       <c r="A665" s="1">
         <v>41262</v>
       </c>
-      <c r="B665" s="3">
+      <c r="B665" s="2">
         <v>13516238</v>
       </c>
-      <c r="C665" s="4">
+      <c r="C665" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7730,10 +7726,10 @@
       <c r="A666" s="1">
         <v>41258</v>
       </c>
-      <c r="B666" s="3">
+      <c r="B666" s="2">
         <v>13947095</v>
       </c>
-      <c r="C666" s="4">
+      <c r="C666" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7741,10 +7737,10 @@
       <c r="A667" s="1">
         <v>41255</v>
       </c>
-      <c r="B667" s="3">
+      <c r="B667" s="2">
         <v>14984241</v>
       </c>
-      <c r="C667" s="4">
+      <c r="C667" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7752,10 +7748,10 @@
       <c r="A668" s="1">
         <v>41251</v>
       </c>
-      <c r="B668" s="3">
+      <c r="B668" s="2">
         <v>14563981</v>
       </c>
-      <c r="C668" s="4">
+      <c r="C668" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7763,10 +7759,10 @@
       <c r="A669" s="1">
         <v>41248</v>
       </c>
-      <c r="B669" s="3">
+      <c r="B669" s="2">
         <v>14281175</v>
       </c>
-      <c r="C669" s="4">
+      <c r="C669" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7774,10 +7770,10 @@
       <c r="A670" s="1">
         <v>41244</v>
       </c>
-      <c r="B670" s="3">
+      <c r="B670" s="2">
         <v>14928026</v>
       </c>
-      <c r="C670" s="4">
+      <c r="C670" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7785,10 +7781,10 @@
       <c r="A671" s="1">
         <v>41241</v>
       </c>
-      <c r="B671" s="3">
+      <c r="B671" s="2">
         <v>281565987</v>
       </c>
-      <c r="C671" s="4">
+      <c r="C671" s="3">
         <v>425</v>
       </c>
     </row>
@@ -7796,10 +7792,10 @@
       <c r="A672" s="1">
         <v>41237</v>
       </c>
-      <c r="B672" s="3">
+      <c r="B672" s="2">
         <v>70048220</v>
       </c>
-      <c r="C672" s="4">
+      <c r="C672" s="3">
         <v>325</v>
       </c>
     </row>
@@ -7807,10 +7803,10 @@
       <c r="A673" s="1">
         <v>41234</v>
       </c>
-      <c r="B673" s="3">
+      <c r="B673" s="2">
         <v>43266560</v>
       </c>
-      <c r="C673" s="4">
+      <c r="C673" s="3">
         <v>250</v>
       </c>
     </row>
@@ -7818,10 +7814,10 @@
       <c r="A674" s="1">
         <v>41230</v>
       </c>
-      <c r="B674" s="3">
+      <c r="B674" s="2">
         <v>34901405</v>
       </c>
-      <c r="C674" s="4">
+      <c r="C674" s="3">
         <v>214</v>
       </c>
     </row>
@@ -7829,10 +7825,10 @@
       <c r="A675" s="1">
         <v>41227</v>
       </c>
-      <c r="B675" s="3">
+      <c r="B675" s="2">
         <v>26646649</v>
       </c>
-      <c r="C675" s="4">
+      <c r="C675" s="3">
         <v>185</v>
       </c>
     </row>
@@ -7840,10 +7836,10 @@
       <c r="A676" s="1">
         <v>41223</v>
       </c>
-      <c r="B676" s="3">
+      <c r="B676" s="2">
         <v>25042427</v>
       </c>
-      <c r="C676" s="4">
+      <c r="C676" s="3">
         <v>168</v>
       </c>
     </row>
@@ -7851,10 +7847,10 @@
       <c r="A677" s="1">
         <v>41220</v>
       </c>
-      <c r="B677" s="3">
+      <c r="B677" s="2">
         <v>20818417</v>
       </c>
-      <c r="C677" s="4">
+      <c r="C677" s="3">
         <v>143</v>
       </c>
     </row>
@@ -7862,10 +7858,10 @@
       <c r="A678" s="1">
         <v>41216</v>
       </c>
-      <c r="B678" s="3">
+      <c r="B678" s="2">
         <v>20347603</v>
       </c>
-      <c r="C678" s="4">
+      <c r="C678" s="3">
         <v>124</v>
       </c>
     </row>
@@ -7873,10 +7869,10 @@
       <c r="A679" s="1">
         <v>41213</v>
       </c>
-      <c r="B679" s="3">
+      <c r="B679" s="2">
         <v>15907737</v>
       </c>
-      <c r="C679" s="4">
+      <c r="C679" s="3">
         <v>110</v>
       </c>
     </row>
@@ -7884,10 +7880,10 @@
       <c r="A680" s="1">
         <v>41209</v>
       </c>
-      <c r="B680" s="3">
+      <c r="B680" s="2">
         <v>18871497</v>
       </c>
-      <c r="C680" s="4">
+      <c r="C680" s="3">
         <v>100</v>
       </c>
     </row>
@@ -7895,10 +7891,10 @@
       <c r="A681" s="1">
         <v>41206</v>
       </c>
-      <c r="B681" s="3">
+      <c r="B681" s="2">
         <v>14647736</v>
       </c>
-      <c r="C681" s="4">
+      <c r="C681" s="3">
         <v>90</v>
       </c>
     </row>
@@ -7906,10 +7902,10 @@
       <c r="A682" s="1">
         <v>41202</v>
       </c>
-      <c r="B682" s="3">
+      <c r="B682" s="2">
         <v>15154294</v>
       </c>
-      <c r="C682" s="4">
+      <c r="C682" s="3">
         <v>80</v>
       </c>
     </row>
@@ -7917,10 +7913,10 @@
       <c r="A683" s="1">
         <v>41199</v>
       </c>
-      <c r="B683" s="3">
+      <c r="B683" s="2">
         <v>12751142</v>
       </c>
-      <c r="C683" s="4">
+      <c r="C683" s="3">
         <v>70</v>
       </c>
     </row>
@@ -7928,10 +7924,10 @@
       <c r="A684" s="1">
         <v>41195</v>
       </c>
-      <c r="B684" s="3">
+      <c r="B684" s="2">
         <v>13661904</v>
       </c>
-      <c r="C684" s="4">
+      <c r="C684" s="3">
         <v>60</v>
       </c>
     </row>
@@ -7939,10 +7935,10 @@
       <c r="A685" s="1">
         <v>41192</v>
       </c>
-      <c r="B685" s="3">
+      <c r="B685" s="2">
         <v>11968309</v>
       </c>
-      <c r="C685" s="4">
+      <c r="C685" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7950,10 +7946,10 @@
       <c r="A686" s="1">
         <v>41188</v>
       </c>
-      <c r="B686" s="3">
+      <c r="B686" s="2">
         <v>13156079</v>
       </c>
-      <c r="C686" s="4">
+      <c r="C686" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7961,10 +7957,10 @@
       <c r="A687" s="1">
         <v>41185</v>
       </c>
-      <c r="B687" s="3">
+      <c r="B687" s="2">
         <v>12798677</v>
       </c>
-      <c r="C687" s="4">
+      <c r="C687" s="3">
         <v>50</v>
       </c>
     </row>
@@ -7972,10 +7968,10 @@
       <c r="A688" s="1">
         <v>41181</v>
       </c>
-      <c r="B688" s="3">
+      <c r="B688" s="2">
         <v>13832962</v>
       </c>
-      <c r="C688" s="4">
+      <c r="C688" s="3">
         <v>40</v>
       </c>
     </row>
@@ -7983,10 +7979,10 @@
       <c r="A689" s="1">
         <v>41178</v>
       </c>
-      <c r="B689" s="3">
+      <c r="B689" s="2">
         <v>30750195</v>
       </c>
-      <c r="C689" s="4">
+      <c r="C689" s="3">
         <v>200</v>
       </c>
     </row>
@@ -7994,10 +7990,10 @@
       <c r="A690" s="1">
         <v>41174</v>
       </c>
-      <c r="B690" s="3">
+      <c r="B690" s="2">
         <v>25342863</v>
       </c>
-      <c r="C690" s="4">
+      <c r="C690" s="3">
         <v>174</v>
       </c>
     </row>
@@ -8005,10 +8001,10 @@
       <c r="A691" s="1">
         <v>41171</v>
       </c>
-      <c r="B691" s="3">
+      <c r="B691" s="2">
         <v>21270452</v>
       </c>
-      <c r="C691" s="4">
+      <c r="C691" s="3">
         <v>149</v>
       </c>
     </row>
@@ -8016,10 +8012,10 @@
       <c r="A692" s="1">
         <v>41167</v>
       </c>
-      <c r="B692" s="3">
+      <c r="B692" s="2">
         <v>20572089</v>
       </c>
-      <c r="C692" s="4">
+      <c r="C692" s="3">
         <v>125</v>
       </c>
     </row>
@@ -8027,10 +8023,10 @@
       <c r="A693" s="1">
         <v>41164</v>
       </c>
-      <c r="B693" s="3">
+      <c r="B693" s="2">
         <v>17126103</v>
       </c>
-      <c r="C693" s="4">
+      <c r="C693" s="3">
         <v>110</v>
       </c>
     </row>
@@ -8038,10 +8034,10 @@
       <c r="A694" s="1">
         <v>41160</v>
       </c>
-      <c r="B694" s="3">
+      <c r="B694" s="2">
         <v>18042307</v>
       </c>
-      <c r="C694" s="4">
+      <c r="C694" s="3">
         <v>100</v>
       </c>
     </row>
@@ -8049,10 +8045,10 @@
       <c r="A695" s="1">
         <v>41157</v>
       </c>
-      <c r="B695" s="3">
+      <c r="B695" s="2">
         <v>14202445</v>
       </c>
-      <c r="C695" s="4">
+      <c r="C695" s="3">
         <v>90</v>
       </c>
     </row>
@@ -8060,10 +8056,10 @@
       <c r="A696" s="1">
         <v>41153</v>
       </c>
-      <c r="B696" s="3">
+      <c r="B696" s="2">
         <v>15725595</v>
       </c>
-      <c r="C696" s="4">
+      <c r="C696" s="3">
         <v>80</v>
       </c>
     </row>
@@ -8071,10 +8067,10 @@
       <c r="A697" s="1">
         <v>41150</v>
       </c>
-      <c r="B697" s="3">
+      <c r="B697" s="2">
         <v>13126215</v>
       </c>
-      <c r="C697" s="4">
+      <c r="C697" s="3">
         <v>70</v>
       </c>
     </row>
@@ -8082,10 +8078,10 @@
       <c r="A698" s="1">
         <v>41146</v>
       </c>
-      <c r="B698" s="3">
+      <c r="B698" s="2">
         <v>14341210</v>
       </c>
-      <c r="C698" s="4">
+      <c r="C698" s="3">
         <v>60</v>
       </c>
     </row>
@@ -8093,10 +8089,10 @@
       <c r="A699" s="1">
         <v>41143</v>
       </c>
-      <c r="B699" s="3">
+      <c r="B699" s="2">
         <v>12609036</v>
       </c>
-      <c r="C699" s="4">
+      <c r="C699" s="3">
         <v>50</v>
       </c>
     </row>
@@ -8104,10 +8100,10 @@
       <c r="A700" s="1">
         <v>41139</v>
       </c>
-      <c r="B700" s="3">
+      <c r="B700" s="2">
         <v>13377997</v>
       </c>
-      <c r="C700" s="4">
+      <c r="C700" s="3">
         <v>40</v>
       </c>
     </row>
@@ -8115,10 +8111,10 @@
       <c r="A701" s="1">
         <v>41136</v>
       </c>
-      <c r="B701" s="3">
+      <c r="B701" s="2">
         <v>86118934</v>
       </c>
-      <c r="C701" s="4">
+      <c r="C701" s="3">
         <v>320</v>
       </c>
     </row>
@@ -8126,10 +8122,10 @@
       <c r="A702" s="1">
         <v>41132</v>
       </c>
-      <c r="B702" s="3">
+      <c r="B702" s="2">
         <v>44949446</v>
       </c>
-      <c r="C702" s="4">
+      <c r="C702" s="3">
         <v>253</v>
       </c>
     </row>
@@ -8137,10 +8133,10 @@
       <c r="A703" s="1">
         <v>41129</v>
       </c>
-      <c r="B703" s="3">
+      <c r="B703" s="2">
         <v>34450517</v>
       </c>
-      <c r="C703" s="4">
+      <c r="C703" s="3">
         <v>212</v>
       </c>
     </row>
@@ -8148,10 +8144,10 @@
       <c r="A704" s="1">
         <v>41125</v>
       </c>
-      <c r="B704" s="3">
+      <c r="B704" s="2">
         <v>28465536</v>
       </c>
-      <c r="C704" s="4">
+      <c r="C704" s="3">
         <v>181</v>
       </c>
     </row>
@@ -8159,10 +8155,10 @@
       <c r="A705" s="1">
         <v>41122</v>
       </c>
-      <c r="B705" s="3">
+      <c r="B705" s="2">
         <v>23346819</v>
       </c>
-      <c r="C705" s="4">
+      <c r="C705" s="3">
         <v>158</v>
       </c>
     </row>
@@ -8170,10 +8166,10 @@
       <c r="A706" s="1">
         <v>41118</v>
       </c>
-      <c r="B706" s="3">
+      <c r="B706" s="2">
         <v>21578718</v>
       </c>
-      <c r="C706" s="4">
+      <c r="C706" s="3">
         <v>139</v>
       </c>
     </row>
@@ -8181,10 +8177,10 @@
       <c r="A707" s="1">
         <v>41115</v>
       </c>
-      <c r="B707" s="3">
+      <c r="B707" s="2">
         <v>19177618</v>
       </c>
-      <c r="C707" s="4">
+      <c r="C707" s="3">
         <v>121</v>
       </c>
     </row>
@@ -8192,10 +8188,10 @@
       <c r="A708" s="1">
         <v>41111</v>
       </c>
-      <c r="B708" s="3">
+      <c r="B708" s="2">
         <v>19458332</v>
       </c>
-      <c r="C708" s="4">
+      <c r="C708" s="3">
         <v>110</v>
       </c>
     </row>
@@ -8203,10 +8199,10 @@
       <c r="A709" s="1">
         <v>41108</v>
       </c>
-      <c r="B709" s="3">
+      <c r="B709" s="2">
         <v>17536553</v>
       </c>
-      <c r="C709" s="4">
+      <c r="C709" s="3">
         <v>100</v>
       </c>
     </row>
@@ -8214,10 +8210,10 @@
       <c r="A710" s="1">
         <v>41104</v>
       </c>
-      <c r="B710" s="3">
+      <c r="B710" s="2">
         <v>16175886</v>
       </c>
-      <c r="C710" s="4">
+      <c r="C710" s="3">
         <v>90</v>
       </c>
     </row>
@@ -8225,10 +8221,10 @@
       <c r="A711" s="1">
         <v>41101</v>
       </c>
-      <c r="B711" s="3">
+      <c r="B711" s="2">
         <v>13771725</v>
       </c>
-      <c r="C711" s="4">
+      <c r="C711" s="3">
         <v>80</v>
       </c>
     </row>
@@ -8236,10 +8232,10 @@
       <c r="A712" s="1">
         <v>41097</v>
       </c>
-      <c r="B712" s="3">
+      <c r="B712" s="2">
         <v>14223484</v>
       </c>
-      <c r="C712" s="4">
+      <c r="C712" s="3">
         <v>70</v>
       </c>
     </row>
@@ -8247,10 +8243,10 @@
       <c r="A713" s="1">
         <v>41094</v>
       </c>
-      <c r="B713" s="3">
+      <c r="B713" s="2">
         <v>11474716</v>
       </c>
-      <c r="C713" s="4">
+      <c r="C713" s="3">
         <v>60</v>
       </c>
     </row>
@@ -8258,10 +8254,10 @@
       <c r="A714" s="1">
         <v>41090</v>
       </c>
-      <c r="B714" s="3">
+      <c r="B714" s="2">
         <v>12807593</v>
       </c>
-      <c r="C714" s="4">
+      <c r="C714" s="3">
         <v>50</v>
       </c>
     </row>
@@ -8269,10 +8265,10 @@
       <c r="A715" s="1">
         <v>41087</v>
       </c>
-      <c r="B715" s="3">
+      <c r="B715" s="2">
         <v>11195580</v>
       </c>
-      <c r="C715" s="4">
+      <c r="C715" s="3">
         <v>40</v>
       </c>
     </row>
@@ -8280,10 +8276,10 @@
       <c r="A716" s="1">
         <v>41083</v>
       </c>
-      <c r="B716" s="3">
+      <c r="B716" s="2">
         <v>13929321</v>
       </c>
-      <c r="C716" s="4">
+      <c r="C716" s="3">
         <v>60</v>
       </c>
     </row>
@@ -8291,10 +8287,10 @@
       <c r="A717" s="1">
         <v>41080</v>
       </c>
-      <c r="B717" s="3">
+      <c r="B717" s="2">
         <v>12216756</v>
       </c>
-      <c r="C717" s="4">
+      <c r="C717" s="3">
         <v>50</v>
       </c>
     </row>
@@ -8302,10 +8298,10 @@
       <c r="A718" s="1">
         <v>41076</v>
       </c>
-      <c r="B718" s="3">
+      <c r="B718" s="2">
         <v>13867498</v>
       </c>
-      <c r="C718" s="4">
+      <c r="C718" s="3">
         <v>40</v>
       </c>
     </row>
@@ -8313,10 +8309,10 @@
       <c r="A719" s="1">
         <v>41073</v>
       </c>
-      <c r="B719" s="3">
+      <c r="B719" s="2">
         <v>33049963</v>
       </c>
-      <c r="C719" s="4">
+      <c r="C719" s="3">
         <v>241</v>
       </c>
     </row>
@@ -8324,10 +8320,10 @@
       <c r="A720" s="1">
         <v>41069</v>
       </c>
-      <c r="B720" s="3">
+      <c r="B720" s="2">
         <v>30316390</v>
       </c>
-      <c r="C720" s="4">
+      <c r="C720" s="3">
         <v>205</v>
       </c>
     </row>
@@ -8335,10 +8331,10 @@
       <c r="A721" s="1">
         <v>41066</v>
       </c>
-      <c r="B721" s="3">
+      <c r="B721" s="2">
         <v>23760269</v>
       </c>
-      <c r="C721" s="4">
+      <c r="C721" s="3">
         <v>177</v>
       </c>
     </row>
@@ -8346,10 +8342,10 @@
       <c r="A722" s="1">
         <v>41062</v>
       </c>
-      <c r="B722" s="3">
+      <c r="B722" s="2">
         <v>23613168</v>
       </c>
-      <c r="C722" s="4">
+      <c r="C722" s="3">
         <v>164</v>
       </c>
     </row>
@@ -8357,10 +8353,10 @@
       <c r="A723" s="1">
         <v>41059</v>
       </c>
-      <c r="B723" s="3">
+      <c r="B723" s="2">
         <v>18776805</v>
       </c>
-      <c r="C723" s="4">
+      <c r="C723" s="3">
         <v>146</v>
       </c>
     </row>
@@ -8368,10 +8364,10 @@
       <c r="A724" s="1">
         <v>41055</v>
       </c>
-      <c r="B724" s="3">
+      <c r="B724" s="2">
         <v>19812566</v>
       </c>
-      <c r="C724" s="4">
+      <c r="C724" s="3">
         <v>128</v>
       </c>
     </row>
@@ -8379,10 +8375,10 @@
       <c r="A725" s="1">
         <v>41052</v>
       </c>
-      <c r="B725" s="3">
+      <c r="B725" s="2">
         <v>17315628</v>
       </c>
-      <c r="C725" s="4">
+      <c r="C725" s="3">
         <v>110</v>
       </c>
     </row>
@@ -8390,10 +8386,10 @@
       <c r="A726" s="1">
         <v>41048</v>
       </c>
-      <c r="B726" s="3">
+      <c r="B726" s="2">
         <v>18239039</v>
       </c>
-      <c r="C726" s="4">
+      <c r="C726" s="3">
         <v>100</v>
       </c>
     </row>
@@ -8401,10 +8397,10 @@
       <c r="A727" s="1">
         <v>41045</v>
       </c>
-      <c r="B727" s="3">
+      <c r="B727" s="2">
         <v>14268130</v>
       </c>
-      <c r="C727" s="4">
+      <c r="C727" s="3">
         <v>90</v>
       </c>
     </row>
@@ -8412,10 +8408,10 @@
       <c r="A728" s="1">
         <v>41041</v>
       </c>
-      <c r="B728" s="3">
+      <c r="B728" s="2">
         <v>15232731</v>
       </c>
-      <c r="C728" s="4">
+      <c r="C728" s="3">
         <v>80</v>
       </c>
     </row>
@@ -8423,10 +8419,10 @@
       <c r="A729" s="1">
         <v>41038</v>
       </c>
-      <c r="B729" s="3">
+      <c r="B729" s="2">
         <v>13148989</v>
       </c>
-      <c r="C729" s="4">
+      <c r="C729" s="3">
         <v>70</v>
       </c>
     </row>
@@ -8434,10 +8430,10 @@
       <c r="A730" s="1">
         <v>41034</v>
       </c>
-      <c r="B730" s="3">
+      <c r="B730" s="2">
         <v>13901037</v>
       </c>
-      <c r="C730" s="4">
+      <c r="C730" s="3">
         <v>60</v>
       </c>
     </row>
@@ -8445,10 +8441,10 @@
       <c r="A731" s="1">
         <v>41031</v>
       </c>
-      <c r="B731" s="3">
+      <c r="B731" s="2">
         <v>12217054</v>
       </c>
-      <c r="C731" s="4">
+      <c r="C731" s="3">
         <v>50</v>
       </c>
     </row>
@@ -8456,10 +8452,10 @@
       <c r="A732" s="1">
         <v>41027</v>
       </c>
-      <c r="B732" s="3">
+      <c r="B732" s="2">
         <v>13925225</v>
       </c>
-      <c r="C732" s="4">
+      <c r="C732" s="3">
         <v>40</v>
       </c>
     </row>
@@ -8467,10 +8463,10 @@
       <c r="A733" s="1">
         <v>41024</v>
       </c>
-      <c r="B733" s="3">
+      <c r="B733" s="2">
         <v>22362651</v>
       </c>
-      <c r="C733" s="4">
+      <c r="C733" s="3">
         <v>173</v>
       </c>
     </row>
@@ -8478,10 +8474,10 @@
       <c r="A734" s="1">
         <v>41020</v>
       </c>
-      <c r="B734" s="3">
+      <c r="B734" s="2">
         <v>22284217</v>
       </c>
-      <c r="C734" s="4">
+      <c r="C734" s="3">
         <v>152</v>
       </c>
     </row>
@@ -8489,10 +8485,10 @@
       <c r="A735" s="1">
         <v>41017</v>
       </c>
-      <c r="B735" s="3">
+      <c r="B735" s="2">
         <v>19284614</v>
       </c>
-      <c r="C735" s="4">
+      <c r="C735" s="3">
         <v>131</v>
       </c>
     </row>
@@ -8500,10 +8496,10 @@
       <c r="A736" s="1">
         <v>41013</v>
       </c>
-      <c r="B736" s="3">
+      <c r="B736" s="2">
         <v>20077049</v>
       </c>
-      <c r="C736" s="4">
+      <c r="C736" s="3">
         <v>113</v>
       </c>
     </row>
@@ -8511,10 +8507,10 @@
       <c r="A737" s="1">
         <v>41010</v>
       </c>
-      <c r="B737" s="3">
+      <c r="B737" s="2">
         <v>15751801</v>
       </c>
-      <c r="C737" s="4">
+      <c r="C737" s="3">
         <v>94</v>
       </c>
     </row>
@@ -8522,10 +8518,10 @@
       <c r="A738" s="1">
         <v>41006</v>
       </c>
-      <c r="B738" s="3">
+      <c r="B738" s="2">
         <v>16408961</v>
       </c>
-      <c r="C738" s="4">
+      <c r="C738" s="3">
         <v>80</v>
       </c>
     </row>
@@ -8533,10 +8529,10 @@
       <c r="A739" s="1">
         <v>41003</v>
       </c>
-      <c r="B739" s="3">
+      <c r="B739" s="2">
         <v>14489019</v>
       </c>
-      <c r="C739" s="4">
+      <c r="C739" s="3">
         <v>70</v>
       </c>
     </row>
@@ -8544,10 +8540,10 @@
       <c r="A740" s="1">
         <v>40999</v>
       </c>
-      <c r="B740" s="3">
+      <c r="B740" s="2">
         <v>19152539</v>
       </c>
-      <c r="C740" s="4">
+      <c r="C740" s="3">
         <v>60</v>
       </c>
     </row>
@@ -8555,10 +8551,10 @@
       <c r="A741" s="1">
         <v>40996</v>
       </c>
-      <c r="B741" s="3">
+      <c r="B741" s="2">
         <v>14557546</v>
       </c>
-      <c r="C741" s="4">
+      <c r="C741" s="3">
         <v>50</v>
       </c>
     </row>
@@ -8566,10 +8562,10 @@
       <c r="A742" s="1">
         <v>40992</v>
       </c>
-      <c r="B742" s="3">
+      <c r="B742" s="2">
         <v>14999871</v>
       </c>
-      <c r="C742" s="4">
+      <c r="C742" s="3">
         <v>40</v>
       </c>
     </row>
@@ -8577,10 +8573,10 @@
       <c r="A743" s="1">
         <v>40989</v>
       </c>
-      <c r="B743" s="3">
+      <c r="B743" s="2">
         <v>14516101</v>
       </c>
-      <c r="C743" s="4">
+      <c r="C743" s="3">
         <v>70</v>
       </c>
     </row>
@@ -8588,10 +8584,10 @@
       <c r="A744" s="1">
         <v>40985</v>
       </c>
-      <c r="B744" s="3">
+      <c r="B744" s="2">
         <v>16207067</v>
       </c>
-      <c r="C744" s="4">
+      <c r="C744" s="3">
         <v>60</v>
       </c>
     </row>
@@ -8599,10 +8595,10 @@
       <c r="A745" s="1">
         <v>40982</v>
       </c>
-      <c r="B745" s="3">
+      <c r="B745" s="2">
         <v>13950904</v>
       </c>
-      <c r="C745" s="4">
+      <c r="C745" s="3">
         <v>50</v>
       </c>
     </row>
@@ -8610,10 +8606,10 @@
       <c r="A746" s="1">
         <v>40978</v>
       </c>
-      <c r="B746" s="3">
+      <c r="B746" s="2">
         <v>16206621</v>
       </c>
-      <c r="C746" s="4">
+      <c r="C746" s="3">
         <v>40</v>
       </c>
     </row>
@@ -8621,10 +8617,10 @@
       <c r="A747" s="1">
         <v>40975</v>
       </c>
-      <c r="B747" s="3">
+      <c r="B747" s="2">
         <v>15418173</v>
       </c>
-      <c r="C747" s="4">
+      <c r="C747" s="3">
         <v>60</v>
       </c>
     </row>
@@ -8632,10 +8628,10 @@
       <c r="A748" s="1">
         <v>40971</v>
       </c>
-      <c r="B748" s="3">
+      <c r="B748" s="2">
         <v>17176470</v>
       </c>
-      <c r="C748" s="4">
+      <c r="C748" s="3">
         <v>50</v>
       </c>
     </row>
@@ -8643,10 +8639,10 @@
       <c r="A749" s="1">
         <v>40968</v>
       </c>
-      <c r="B749" s="3">
+      <c r="B749" s="2">
         <v>14527775</v>
       </c>
-      <c r="C749" s="4">
+      <c r="C749" s="3">
         <v>40</v>
       </c>
     </row>
@@ -8654,10 +8650,10 @@
       <c r="A750" s="1">
         <v>40964</v>
       </c>
-      <c r="B750" s="3">
+      <c r="B750" s="2">
         <v>18958083</v>
       </c>
-      <c r="C750" s="4">
+      <c r="C750" s="3">
         <v>70</v>
       </c>
     </row>
@@ -8665,10 +8661,10 @@
       <c r="A751" s="1">
         <v>40961</v>
       </c>
-      <c r="B751" s="3">
+      <c r="B751" s="2">
         <v>16383172</v>
       </c>
-      <c r="C751" s="4">
+      <c r="C751" s="3">
         <v>60</v>
       </c>
     </row>
@@ -8676,10 +8672,10 @@
       <c r="A752" s="1">
         <v>40957</v>
       </c>
-      <c r="B752" s="3">
+      <c r="B752" s="2">
         <v>18588952</v>
       </c>
-      <c r="C752" s="4">
+      <c r="C752" s="3">
         <v>50</v>
       </c>
     </row>
@@ -8687,10 +8683,10 @@
       <c r="A753" s="1">
         <v>40954</v>
       </c>
-      <c r="B753" s="3">
+      <c r="B753" s="2">
         <v>16345806</v>
       </c>
-      <c r="C753" s="4">
+      <c r="C753" s="3">
         <v>40</v>
       </c>
     </row>
@@ -8698,10 +8694,10 @@
       <c r="A754" s="1">
         <v>40950</v>
       </c>
-      <c r="B754" s="3">
+      <c r="B754" s="2">
         <v>84680809</v>
       </c>
-      <c r="C754" s="4">
+      <c r="C754" s="3">
         <v>325</v>
       </c>
     </row>
@@ -8709,10 +8705,10 @@
       <c r="A755" s="1">
         <v>40947</v>
       </c>
-      <c r="B755" s="3">
+      <c r="B755" s="2">
         <v>46763252</v>
       </c>
-      <c r="C755" s="4">
+      <c r="C755" s="3">
         <v>250</v>
       </c>
     </row>
@@ -8720,10 +8716,10 @@
       <c r="A756" s="1">
         <v>40943</v>
       </c>
-      <c r="B756" s="3">
+      <c r="B756" s="2">
         <v>37816136</v>
       </c>
-      <c r="C756" s="4">
+      <c r="C756" s="3">
         <v>200</v>
       </c>
     </row>
@@ -8731,10 +8727,10 @@
       <c r="A757" s="1">
         <v>40940</v>
       </c>
-      <c r="B757" s="3">
+      <c r="B757" s="2">
         <v>27642526</v>
       </c>
-      <c r="C757" s="4">
+      <c r="C757" s="3">
         <v>170</v>
       </c>
     </row>
@@ -8742,10 +8738,10 @@
       <c r="A758" s="1">
         <v>40936</v>
       </c>
-      <c r="B758" s="3">
+      <c r="B758" s="2">
         <v>24997731</v>
       </c>
-      <c r="C758" s="4">
+      <c r="C758" s="3">
         <v>146</v>
       </c>
     </row>
@@ -8753,10 +8749,10 @@
       <c r="A759" s="1">
         <v>40933</v>
       </c>
-      <c r="B759" s="3">
+      <c r="B759" s="2">
         <v>20651160</v>
       </c>
-      <c r="C759" s="4">
+      <c r="C759" s="3">
         <v>120</v>
       </c>
     </row>
@@ -8764,10 +8760,10 @@
       <c r="A760" s="1">
         <v>40929</v>
       </c>
-      <c r="B760" s="3">
+      <c r="B760" s="2">
         <v>20450945</v>
       </c>
-      <c r="C760" s="4">
+      <c r="C760" s="3">
         <v>100</v>
       </c>
     </row>
@@ -8775,10 +8771,10 @@
       <c r="A761" s="1">
         <v>40926</v>
       </c>
-      <c r="B761" s="3">
+      <c r="B761" s="2">
         <v>16676193</v>
       </c>
-      <c r="C761" s="4">
+      <c r="C761" s="3">
         <v>80</v>
       </c>
     </row>
@@ -8786,10 +8782,10 @@
       <c r="A762" s="1">
         <v>40922</v>
       </c>
-      <c r="B762" s="3">
+      <c r="B762" s="2">
         <v>24885431</v>
       </c>
-      <c r="C762" s="4">
+      <c r="C762" s="3">
         <v>66</v>
       </c>
     </row>
@@ -8797,10 +8793,10 @@
       <c r="A763" s="1">
         <v>40919</v>
       </c>
-      <c r="B763" s="3">
+      <c r="B763" s="2">
         <v>21467730</v>
       </c>
-      <c r="C763" s="4">
+      <c r="C763" s="3">
         <v>54</v>
       </c>
     </row>
@@ -8808,10 +8804,10 @@
       <c r="A764" s="1">
         <v>40915</v>
       </c>
-      <c r="B764" s="3">
+      <c r="B764" s="2">
         <v>22747865</v>
       </c>
-      <c r="C764" s="4">
+      <c r="C764" s="3">
         <v>44</v>
       </c>
     </row>
@@ -8819,10 +8815,10 @@
       <c r="A765" s="1">
         <v>40912</v>
       </c>
-      <c r="B765" s="3">
+      <c r="B765" s="2">
         <v>19026140</v>
       </c>
-      <c r="C765" s="4">
+      <c r="C765" s="3">
         <v>30</v>
       </c>
     </row>
